--- a/data/nzd0435/nzd0435.xlsx
+++ b/data/nzd0435/nzd0435.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P636"/>
+  <dimension ref="A1:P645"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -30666,6 +30666,492 @@
         </is>
       </c>
     </row>
+    <row r="637">
+      <c r="A637" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-18 22:26:19+00:00</t>
+        </is>
+      </c>
+      <c r="B637" t="n">
+        <v>363.3877777777778</v>
+      </c>
+      <c r="C637" t="n">
+        <v>353.9973684210527</v>
+      </c>
+      <c r="D637" t="n">
+        <v>352.0388888888889</v>
+      </c>
+      <c r="E637" t="n">
+        <v>349.4288888888889</v>
+      </c>
+      <c r="F637" t="n">
+        <v>361.5866666666667</v>
+      </c>
+      <c r="G637" t="n">
+        <v>366.3135294117647</v>
+      </c>
+      <c r="H637" t="n">
+        <v>361.4173684210527</v>
+      </c>
+      <c r="I637" t="n">
+        <v>351.5866666666667</v>
+      </c>
+      <c r="J637" t="n">
+        <v>344.3235294117647</v>
+      </c>
+      <c r="K637" t="n">
+        <v>343.437619047619</v>
+      </c>
+      <c r="L637" t="n">
+        <v>340.84</v>
+      </c>
+      <c r="M637" t="n">
+        <v>340.4848387096774</v>
+      </c>
+      <c r="N637" t="n">
+        <v>338.8448387096774</v>
+      </c>
+      <c r="O637" t="n">
+        <v>341.9418181818182</v>
+      </c>
+      <c r="P637" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="638">
+      <c r="A638" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-26 22:26:13+00:00</t>
+        </is>
+      </c>
+      <c r="B638" t="n">
+        <v>360.9755555555556</v>
+      </c>
+      <c r="C638" t="n">
+        <v>356.3015789473685</v>
+      </c>
+      <c r="D638" t="n">
+        <v>354.1777777777777</v>
+      </c>
+      <c r="E638" t="n">
+        <v>359.3377777777778</v>
+      </c>
+      <c r="F638" t="n">
+        <v>364.1233333333333</v>
+      </c>
+      <c r="G638" t="n">
+        <v>363.2411764705882</v>
+      </c>
+      <c r="H638" t="n">
+        <v>361.0815789473684</v>
+      </c>
+      <c r="I638" t="n">
+        <v>354.5333333333333</v>
+      </c>
+      <c r="J638" t="n">
+        <v>349.8411764705882</v>
+      </c>
+      <c r="K638" t="n">
+        <v>342.5709523809524</v>
+      </c>
+      <c r="L638" t="n">
+        <v>338.31</v>
+      </c>
+      <c r="M638" t="n">
+        <v>335.5429032258065</v>
+      </c>
+      <c r="N638" t="n">
+        <v>333.4529032258064</v>
+      </c>
+      <c r="O638" t="n">
+        <v>339.3354545454546</v>
+      </c>
+      <c r="P638" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="639">
+      <c r="A639" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-03 22:26:15+00:00</t>
+        </is>
+      </c>
+      <c r="B639" t="n">
+        <v>341.17</v>
+      </c>
+      <c r="C639" t="n">
+        <v>335.3178947368421</v>
+      </c>
+      <c r="D639" t="n">
+        <v>336.65</v>
+      </c>
+      <c r="E639" t="n">
+        <v>349.62</v>
+      </c>
+      <c r="F639" t="n">
+        <v>352.35</v>
+      </c>
+      <c r="G639" t="n">
+        <v>351.0535294117647</v>
+      </c>
+      <c r="H639" t="n">
+        <v>332.3578947368421</v>
+      </c>
+      <c r="I639" t="n">
+        <v>324.84</v>
+      </c>
+      <c r="J639" t="n">
+        <v>325.9235294117647</v>
+      </c>
+      <c r="K639" t="n">
+        <v>320.2285714285715</v>
+      </c>
+      <c r="L639" t="n">
+        <v>325</v>
+      </c>
+      <c r="M639" t="n">
+        <v>328.168064516129</v>
+      </c>
+      <c r="N639" t="n">
+        <v>328.898064516129</v>
+      </c>
+      <c r="O639" t="n">
+        <v>335.5909090909091</v>
+      </c>
+      <c r="P639" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="640">
+      <c r="A640" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-11 22:26:16+00:00</t>
+        </is>
+      </c>
+      <c r="B640" t="n">
+        <v>353.1611111111111</v>
+      </c>
+      <c r="C640" t="n">
+        <v>354.2826315789474</v>
+      </c>
+      <c r="D640" t="n">
+        <v>359.6055555555556</v>
+      </c>
+      <c r="E640" t="n">
+        <v>359.0055555555556</v>
+      </c>
+      <c r="F640" t="n">
+        <v>368.7066666666666</v>
+      </c>
+      <c r="G640" t="n">
+        <v>367.7976470588235</v>
+      </c>
+      <c r="H640" t="n">
+        <v>368.6626315789474</v>
+      </c>
+      <c r="I640" t="n">
+        <v>361.3966666666666</v>
+      </c>
+      <c r="J640" t="n">
+        <v>360.8576470588236</v>
+      </c>
+      <c r="K640" t="n">
+        <v>345.7104761904762</v>
+      </c>
+      <c r="L640" t="n">
+        <v>351.92</v>
+      </c>
+      <c r="M640" t="n">
+        <v>348.1883870967742</v>
+      </c>
+      <c r="N640" t="n">
+        <v>348.0983870967742</v>
+      </c>
+      <c r="O640" t="n">
+        <v>362.6763636363637</v>
+      </c>
+      <c r="P640" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="641">
+      <c r="A641" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-12 22:20:09+00:00</t>
+        </is>
+      </c>
+      <c r="B641" t="n">
+        <v>370.7311111111111</v>
+      </c>
+      <c r="C641" t="n">
+        <v>365.0273684210526</v>
+      </c>
+      <c r="D641" t="n">
+        <v>366.4555555555555</v>
+      </c>
+      <c r="E641" t="n">
+        <v>366.8855555555555</v>
+      </c>
+      <c r="F641" t="n">
+        <v>371.7566666666667</v>
+      </c>
+      <c r="G641" t="n">
+        <v>376.5052941176471</v>
+      </c>
+      <c r="H641" t="n">
+        <v>370.3273684210527</v>
+      </c>
+      <c r="I641" t="n">
+        <v>370.9566666666666</v>
+      </c>
+      <c r="J641" t="n">
+        <v>363.8952941176471</v>
+      </c>
+      <c r="K641" t="n">
+        <v>353.1947619047619</v>
+      </c>
+      <c r="L641" t="n">
+        <v>356.2</v>
+      </c>
+      <c r="M641" t="n">
+        <v>353.7996774193548</v>
+      </c>
+      <c r="N641" t="n">
+        <v>355.8996774193548</v>
+      </c>
+      <c r="O641" t="n">
+        <v>370.9690909090909</v>
+      </c>
+      <c r="P641" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="642">
+      <c r="A642" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-19 22:26:22+00:00</t>
+        </is>
+      </c>
+      <c r="B642" t="n">
+        <v>355.08</v>
+      </c>
+      <c r="C642" t="n">
+        <v>357.3684210526316</v>
+      </c>
+      <c r="D642" t="n">
+        <v>354.78</v>
+      </c>
+      <c r="E642" t="n">
+        <v>359.97</v>
+      </c>
+      <c r="F642" t="n">
+        <v>363.17</v>
+      </c>
+      <c r="G642" t="n">
+        <v>361.8382352941176</v>
+      </c>
+      <c r="H642" t="n">
+        <v>353.8084210526316</v>
+      </c>
+      <c r="I642" t="n">
+        <v>353.5</v>
+      </c>
+      <c r="J642" t="n">
+        <v>344.9182352941176</v>
+      </c>
+      <c r="K642" t="n">
+        <v>350.15</v>
+      </c>
+      <c r="L642" t="n">
+        <v>354.5</v>
+      </c>
+      <c r="M642" t="n">
+        <v>352.0054838709677</v>
+      </c>
+      <c r="N642" t="n">
+        <v>347.5054838709677</v>
+      </c>
+      <c r="O642" t="n">
+        <v>352.1354545454545</v>
+      </c>
+      <c r="P642" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="643">
+      <c r="A643" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-20 22:20:01+00:00</t>
+        </is>
+      </c>
+      <c r="B643" t="n">
+        <v>342.4488888888889</v>
+      </c>
+      <c r="C643" t="n">
+        <v>341.4421052631579</v>
+      </c>
+      <c r="D643" t="n">
+        <v>344.8444444444444</v>
+      </c>
+      <c r="E643" t="n">
+        <v>351.8044444444445</v>
+      </c>
+      <c r="F643" t="n">
+        <v>355.6433333333333</v>
+      </c>
+      <c r="G643" t="n">
+        <v>362.04</v>
+      </c>
+      <c r="H643" t="n">
+        <v>354.6521052631579</v>
+      </c>
+      <c r="I643" t="n">
+        <v>350.0933333333334</v>
+      </c>
+      <c r="J643" t="n">
+        <v>351.03</v>
+      </c>
+      <c r="K643" t="n">
+        <v>348.5538095238095</v>
+      </c>
+      <c r="L643" t="n">
+        <v>351.6</v>
+      </c>
+      <c r="M643" t="n">
+        <v>349.5129032258064</v>
+      </c>
+      <c r="N643" t="n">
+        <v>342.9129032258065</v>
+      </c>
+      <c r="O643" t="n">
+        <v>347.4663636363636</v>
+      </c>
+      <c r="P643" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="644">
+      <c r="A644" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-27 22:26:12+00:00</t>
+        </is>
+      </c>
+      <c r="B644" t="n">
+        <v>353.3877777777778</v>
+      </c>
+      <c r="C644" t="n">
+        <v>344.6384210526315</v>
+      </c>
+      <c r="D644" t="n">
+        <v>346.6288888888889</v>
+      </c>
+      <c r="E644" t="n">
+        <v>349.4988888888889</v>
+      </c>
+      <c r="F644" t="n">
+        <v>347.1866666666667</v>
+      </c>
+      <c r="G644" t="n">
+        <v>346.8605882352941</v>
+      </c>
+      <c r="H644" t="n">
+        <v>342.6384210526315</v>
+      </c>
+      <c r="I644" t="n">
+        <v>348.4966666666667</v>
+      </c>
+      <c r="J644" t="n">
+        <v>342.0705882352942</v>
+      </c>
+      <c r="K644" t="n">
+        <v>341.7861904761905</v>
+      </c>
+      <c r="L644" t="n">
+        <v>341.67</v>
+      </c>
+      <c r="M644" t="n">
+        <v>341.241935483871</v>
+      </c>
+      <c r="N644" t="n">
+        <v>334.631935483871</v>
+      </c>
+      <c r="O644" t="n">
+        <v>356.1418181818182</v>
+      </c>
+      <c r="P644" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="645">
+      <c r="A645" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-13 22:20:10+00:00</t>
+        </is>
+      </c>
+      <c r="B645" t="n">
+        <v>373.5422222222222</v>
+      </c>
+      <c r="C645" t="n">
+        <v>373.5568421052632</v>
+      </c>
+      <c r="D645" t="n">
+        <v>366.3511111111111</v>
+      </c>
+      <c r="E645" t="n">
+        <v>372.9211111111111</v>
+      </c>
+      <c r="F645" t="n">
+        <v>375.4133333333334</v>
+      </c>
+      <c r="G645" t="n">
+        <v>386.5894117647059</v>
+      </c>
+      <c r="H645" t="n">
+        <v>380.1168421052632</v>
+      </c>
+      <c r="I645" t="n">
+        <v>371.2833333333334</v>
+      </c>
+      <c r="J645" t="n">
+        <v>371.6794117647058</v>
+      </c>
+      <c r="K645" t="n">
+        <v>367.6852380952381</v>
+      </c>
+      <c r="L645" t="n">
+        <v>366.35</v>
+      </c>
+      <c r="M645" t="n">
+        <v>358.5590322580645</v>
+      </c>
+      <c r="N645" t="n">
+        <v>355.0390322580645</v>
+      </c>
+      <c r="O645" t="n">
+        <v>366.7363636363637</v>
+      </c>
+      <c r="P645" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -30677,7 +31163,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B648"/>
+  <dimension ref="A1:B657"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -37165,6 +37651,96 @@
       </c>
       <c r="B648" t="n">
         <v>0.57</v>
+      </c>
+    </row>
+    <row r="649">
+      <c r="A649" t="inlineStr">
+        <is>
+          <t>2024-12-18 22:30:00+00:00</t>
+        </is>
+      </c>
+      <c r="B649" t="n">
+        <v>-0.1</v>
+      </c>
+    </row>
+    <row r="650">
+      <c r="A650" t="inlineStr">
+        <is>
+          <t>2024-12-26 22:30:00+00:00</t>
+        </is>
+      </c>
+      <c r="B650" t="n">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="651">
+      <c r="A651" t="inlineStr">
+        <is>
+          <t>2025-01-03 22:30:00+00:00</t>
+        </is>
+      </c>
+      <c r="B651" t="n">
+        <v>-0.27</v>
+      </c>
+    </row>
+    <row r="652">
+      <c r="A652" t="inlineStr">
+        <is>
+          <t>2025-01-11 22:30:00+00:00</t>
+        </is>
+      </c>
+      <c r="B652" t="n">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="653">
+      <c r="A653" t="inlineStr">
+        <is>
+          <t>2025-01-12 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B653" t="n">
+        <v>1.04</v>
+      </c>
+    </row>
+    <row r="654">
+      <c r="A654" t="inlineStr">
+        <is>
+          <t>2025-01-19 22:30:00+00:00</t>
+        </is>
+      </c>
+      <c r="B654" t="n">
+        <v>-0.63</v>
+      </c>
+    </row>
+    <row r="655">
+      <c r="A655" t="inlineStr">
+        <is>
+          <t>2025-01-20 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B655" t="n">
+        <v>-0.68</v>
+      </c>
+    </row>
+    <row r="656">
+      <c r="A656" t="inlineStr">
+        <is>
+          <t>2025-01-27 22:30:00+00:00</t>
+        </is>
+      </c>
+      <c r="B656" t="n">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="657">
+      <c r="A657" t="inlineStr">
+        <is>
+          <t>2025-02-13 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B657" t="n">
+        <v>0.64</v>
       </c>
     </row>
   </sheetData>
@@ -37333,28 +37909,28 @@
         <v>0.0496</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.8825734751216521</v>
+        <v>-0.8697439064098791</v>
       </c>
       <c r="J2" t="n">
-        <v>635</v>
+        <v>644</v>
       </c>
       <c r="K2" t="n">
-        <v>466</v>
+        <v>475</v>
       </c>
       <c r="L2" t="n">
-        <v>0.09417805933880818</v>
+        <v>0.09422744040526465</v>
       </c>
       <c r="M2" t="n">
-        <v>16.47698849855215</v>
+        <v>16.33008927701549</v>
       </c>
       <c r="N2" t="n">
-        <v>443.8117997771381</v>
+        <v>437.81106926172</v>
       </c>
       <c r="O2" t="n">
-        <v>21.06684123871299</v>
+        <v>20.92393531966967</v>
       </c>
       <c r="P2" t="n">
-        <v>375.4447796763383</v>
+        <v>375.3288812448656</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -37410,28 +37986,28 @@
         <v>0.122</v>
       </c>
       <c r="I3" t="n">
-        <v>-1.005702469924312</v>
+        <v>-0.9753095488044391</v>
       </c>
       <c r="J3" t="n">
-        <v>635</v>
+        <v>644</v>
       </c>
       <c r="K3" t="n">
-        <v>479</v>
+        <v>488</v>
       </c>
       <c r="L3" t="n">
-        <v>0.1885473373806461</v>
+        <v>0.1821951852806674</v>
       </c>
       <c r="M3" t="n">
-        <v>12.45210386233643</v>
+        <v>12.44252824728298</v>
       </c>
       <c r="N3" t="n">
-        <v>254.5106959573438</v>
+        <v>253.6591553092927</v>
       </c>
       <c r="O3" t="n">
-        <v>15.95339136225724</v>
+        <v>15.92668061176881</v>
       </c>
       <c r="P3" t="n">
-        <v>369.4781324398227</v>
+        <v>369.2006754887045</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -37487,28 +38063,28 @@
         <v>0.1157</v>
       </c>
       <c r="I4" t="n">
-        <v>-1.068294113806846</v>
+        <v>-1.036383282781337</v>
       </c>
       <c r="J4" t="n">
-        <v>635</v>
+        <v>644</v>
       </c>
       <c r="K4" t="n">
-        <v>488</v>
+        <v>497</v>
       </c>
       <c r="L4" t="n">
-        <v>0.204531262133115</v>
+        <v>0.1983512137564815</v>
       </c>
       <c r="M4" t="n">
-        <v>12.21689892688708</v>
+        <v>12.19424098500357</v>
       </c>
       <c r="N4" t="n">
-        <v>256.6358555049649</v>
+        <v>255.2383876508835</v>
       </c>
       <c r="O4" t="n">
-        <v>16.01985816119996</v>
+        <v>15.97618188588511</v>
       </c>
       <c r="P4" t="n">
-        <v>370.5656618543912</v>
+        <v>370.2742096027159</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -37564,28 +38140,28 @@
         <v>0.1108</v>
       </c>
       <c r="I5" t="n">
-        <v>-1.212182658481528</v>
+        <v>-1.177036765861681</v>
       </c>
       <c r="J5" t="n">
-        <v>635</v>
+        <v>644</v>
       </c>
       <c r="K5" t="n">
-        <v>502</v>
+        <v>511</v>
       </c>
       <c r="L5" t="n">
-        <v>0.279166029324143</v>
+        <v>0.271455901600527</v>
       </c>
       <c r="M5" t="n">
-        <v>11.44707834779125</v>
+        <v>11.40979863518901</v>
       </c>
       <c r="N5" t="n">
-        <v>214.8804500396321</v>
+        <v>214.2039304472907</v>
       </c>
       <c r="O5" t="n">
-        <v>14.65880111194746</v>
+        <v>14.63570737775563</v>
       </c>
       <c r="P5" t="n">
-        <v>377.2277588347522</v>
+        <v>376.9028389183122</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -37641,28 +38217,28 @@
         <v>0.0893</v>
       </c>
       <c r="I6" t="n">
-        <v>-1.229462608625412</v>
+        <v>-1.196772216621347</v>
       </c>
       <c r="J6" t="n">
-        <v>635</v>
+        <v>644</v>
       </c>
       <c r="K6" t="n">
-        <v>478</v>
+        <v>487</v>
       </c>
       <c r="L6" t="n">
-        <v>0.2921863499832649</v>
+        <v>0.2854999930521001</v>
       </c>
       <c r="M6" t="n">
-        <v>11.24338650977415</v>
+        <v>11.22596654758052</v>
       </c>
       <c r="N6" t="n">
-        <v>206.3469895050685</v>
+        <v>205.5858409164829</v>
       </c>
       <c r="O6" t="n">
-        <v>14.36478296059737</v>
+        <v>14.33826492001326</v>
       </c>
       <c r="P6" t="n">
-        <v>383.4882884190089</v>
+        <v>383.1844434627386</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -37718,28 +38294,28 @@
         <v>0.1061</v>
       </c>
       <c r="I7" t="n">
-        <v>-1.286051493565476</v>
+        <v>-1.250646175215328</v>
       </c>
       <c r="J7" t="n">
-        <v>635</v>
+        <v>644</v>
       </c>
       <c r="K7" t="n">
-        <v>481</v>
+        <v>490</v>
       </c>
       <c r="L7" t="n">
-        <v>0.3171892090055819</v>
+        <v>0.3083523249513213</v>
       </c>
       <c r="M7" t="n">
-        <v>11.22311931275468</v>
+        <v>11.2590309171233</v>
       </c>
       <c r="N7" t="n">
-        <v>205.4220330329295</v>
+        <v>206.0055188448475</v>
       </c>
       <c r="O7" t="n">
-        <v>14.33255151858627</v>
+        <v>14.35289235118997</v>
       </c>
       <c r="P7" t="n">
-        <v>386.4053448576099</v>
+        <v>386.0828351366954</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -37795,28 +38371,28 @@
         <v>0.119</v>
       </c>
       <c r="I8" t="n">
-        <v>-1.344338269841443</v>
+        <v>-1.310422134625505</v>
       </c>
       <c r="J8" t="n">
-        <v>635</v>
+        <v>644</v>
       </c>
       <c r="K8" t="n">
-        <v>482</v>
+        <v>491</v>
       </c>
       <c r="L8" t="n">
-        <v>0.3434483221978996</v>
+        <v>0.3340083626204466</v>
       </c>
       <c r="M8" t="n">
-        <v>11.04244659424984</v>
+        <v>11.10265128996148</v>
       </c>
       <c r="N8" t="n">
-        <v>197.0470822530509</v>
+        <v>198.719836176967</v>
       </c>
       <c r="O8" t="n">
-        <v>14.03734598323525</v>
+        <v>14.0968023387209</v>
       </c>
       <c r="P8" t="n">
-        <v>381.9980320890516</v>
+        <v>381.6856556767071</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -37872,28 +38448,28 @@
         <v>0.0901</v>
       </c>
       <c r="I9" t="n">
-        <v>-1.338630002070753</v>
+        <v>-1.310147700883477</v>
       </c>
       <c r="J9" t="n">
-        <v>635</v>
+        <v>644</v>
       </c>
       <c r="K9" t="n">
-        <v>480</v>
+        <v>489</v>
       </c>
       <c r="L9" t="n">
-        <v>0.3262683965974541</v>
+        <v>0.319830156331405</v>
       </c>
       <c r="M9" t="n">
-        <v>11.66121885765991</v>
+        <v>11.68299676272818</v>
       </c>
       <c r="N9" t="n">
-        <v>214.4642820058737</v>
+        <v>215.0274875080443</v>
       </c>
       <c r="O9" t="n">
-        <v>14.64459907289625</v>
+        <v>14.66381558490301</v>
       </c>
       <c r="P9" t="n">
-        <v>379.0552697668965</v>
+        <v>378.7936993537248</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -37949,28 +38525,28 @@
         <v>0.1118</v>
       </c>
       <c r="I10" t="n">
-        <v>-1.344117174811557</v>
+        <v>-1.316503278812619</v>
       </c>
       <c r="J10" t="n">
-        <v>635</v>
+        <v>644</v>
       </c>
       <c r="K10" t="n">
-        <v>522</v>
+        <v>531</v>
       </c>
       <c r="L10" t="n">
-        <v>0.2958099841670879</v>
+        <v>0.2904251119130206</v>
       </c>
       <c r="M10" t="n">
-        <v>12.49833623545342</v>
+        <v>12.49071598419768</v>
       </c>
       <c r="N10" t="n">
-        <v>251.0194044700861</v>
+        <v>250.9343418652163</v>
       </c>
       <c r="O10" t="n">
-        <v>15.84359190556504</v>
+        <v>15.84090722986585</v>
       </c>
       <c r="P10" t="n">
-        <v>375.1840831439766</v>
+        <v>374.9324712563275</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -38026,28 +38602,28 @@
         <v>0.1528</v>
       </c>
       <c r="I11" t="n">
-        <v>-1.249003288087041</v>
+        <v>-1.2220547008886</v>
       </c>
       <c r="J11" t="n">
-        <v>635</v>
+        <v>644</v>
       </c>
       <c r="K11" t="n">
-        <v>527</v>
+        <v>536</v>
       </c>
       <c r="L11" t="n">
-        <v>0.2568753645575612</v>
+        <v>0.2519371367484255</v>
       </c>
       <c r="M11" t="n">
-        <v>12.79343918713999</v>
+        <v>12.78023669185936</v>
       </c>
       <c r="N11" t="n">
-        <v>263.5650747460125</v>
+        <v>262.8070978519089</v>
       </c>
       <c r="O11" t="n">
-        <v>16.23468739292545</v>
+        <v>16.21132622125374</v>
       </c>
       <c r="P11" t="n">
-        <v>368.3005924424527</v>
+        <v>368.0543453251823</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -38103,28 +38679,28 @@
         <v>0.1281</v>
       </c>
       <c r="I12" t="n">
-        <v>-1.220846009710053</v>
+        <v>-1.179349814244996</v>
       </c>
       <c r="J12" t="n">
-        <v>635</v>
+        <v>644</v>
       </c>
       <c r="K12" t="n">
-        <v>504</v>
+        <v>513</v>
       </c>
       <c r="L12" t="n">
-        <v>0.2486871091377294</v>
+        <v>0.2384042277307367</v>
       </c>
       <c r="M12" t="n">
-        <v>12.58415595041597</v>
+        <v>12.62267218385516</v>
       </c>
       <c r="N12" t="n">
-        <v>263.9106567844897</v>
+        <v>264.5904408839167</v>
       </c>
       <c r="O12" t="n">
-        <v>16.24532722922163</v>
+        <v>16.26623622366024</v>
       </c>
       <c r="P12" t="n">
-        <v>364.7780608825852</v>
+        <v>364.4021505717162</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -38180,28 +38756,28 @@
         <v>0.2</v>
       </c>
       <c r="I13" t="n">
-        <v>-1.297063770196192</v>
+        <v>-1.241127081009362</v>
       </c>
       <c r="J13" t="n">
-        <v>635</v>
+        <v>644</v>
       </c>
       <c r="K13" t="n">
-        <v>467</v>
+        <v>476</v>
       </c>
       <c r="L13" t="n">
-        <v>0.2786348590241339</v>
+        <v>0.2628621848382299</v>
       </c>
       <c r="M13" t="n">
-        <v>12.53661395190327</v>
+        <v>12.62063648463549</v>
       </c>
       <c r="N13" t="n">
-        <v>251.4749271809252</v>
+        <v>253.4275370832649</v>
       </c>
       <c r="O13" t="n">
-        <v>15.85796100326032</v>
+        <v>15.9194075606872</v>
       </c>
       <c r="P13" t="n">
-        <v>361.0698463094677</v>
+        <v>360.5522454066348</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -38257,28 +38833,28 @@
         <v>0.2</v>
       </c>
       <c r="I14" t="n">
-        <v>-1.388695676590255</v>
+        <v>-1.332398177864022</v>
       </c>
       <c r="J14" t="n">
-        <v>635</v>
+        <v>644</v>
       </c>
       <c r="K14" t="n">
-        <v>488</v>
+        <v>497</v>
       </c>
       <c r="L14" t="n">
-        <v>0.2092039628288581</v>
+        <v>0.1984732483423978</v>
       </c>
       <c r="M14" t="n">
-        <v>14.07667166152161</v>
+        <v>14.09570995627491</v>
       </c>
       <c r="N14" t="n">
-        <v>419.2843082903335</v>
+        <v>418.626200172546</v>
       </c>
       <c r="O14" t="n">
-        <v>20.47643299723693</v>
+        <v>20.46035679484955</v>
       </c>
       <c r="P14" t="n">
-        <v>360.0305714812711</v>
+        <v>359.5068428638411</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -38334,28 +38910,28 @@
         <v>0.066</v>
       </c>
       <c r="I15" t="n">
-        <v>-1.2574339094739</v>
+        <v>-1.177816772758971</v>
       </c>
       <c r="J15" t="n">
-        <v>635</v>
+        <v>644</v>
       </c>
       <c r="K15" t="n">
-        <v>455</v>
+        <v>464</v>
       </c>
       <c r="L15" t="n">
-        <v>0.08509893941986124</v>
+        <v>0.07707244508733779</v>
       </c>
       <c r="M15" t="n">
-        <v>18.01102741887927</v>
+        <v>17.93774458632383</v>
       </c>
       <c r="N15" t="n">
-        <v>983.2391250975082</v>
+        <v>976.9732263399773</v>
       </c>
       <c r="O15" t="n">
-        <v>31.3566440343591</v>
+        <v>31.25657093060557</v>
       </c>
       <c r="P15" t="n">
-        <v>360.8187024715762</v>
+        <v>360.0844979155322</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -38392,7 +38968,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P636"/>
+  <dimension ref="A1:P645"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -82268,6 +82844,744 @@
         </is>
       </c>
     </row>
+    <row r="637">
+      <c r="A637" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-18 22:26:19+00:00</t>
+        </is>
+      </c>
+      <c r="B637" t="inlineStr">
+        <is>
+          <t>-43.45769808445015,169.76591001329555</t>
+        </is>
+      </c>
+      <c r="C637" t="inlineStr">
+        <is>
+          <t>-43.457198330976674,169.76649375857858</t>
+        </is>
+      </c>
+      <c r="D637" t="inlineStr">
+        <is>
+          <t>-43.456660821303444,169.7670017454823</t>
+        </is>
+      </c>
+      <c r="E637" t="inlineStr">
+        <is>
+          <t>-43.456126615940676,169.7675163733963</t>
+        </is>
+      </c>
+      <c r="F637" t="inlineStr">
+        <is>
+          <t>-43.45552280478792,169.76787506066148</t>
+        </is>
+      </c>
+      <c r="G637" t="inlineStr">
+        <is>
+          <t>-43.45494298525622,169.7682265886776</t>
+        </is>
+      </c>
+      <c r="H637" t="inlineStr">
+        <is>
+          <t>-43.4543608597129,169.76859742611998</t>
+        </is>
+      </c>
+      <c r="I637" t="inlineStr">
+        <is>
+          <t>-43.453785813766075,169.76903138691242</t>
+        </is>
+      </c>
+      <c r="J637" t="inlineStr">
+        <is>
+          <t>-43.45320193492666,169.76943604351547</t>
+        </is>
+      </c>
+      <c r="K637" t="inlineStr">
+        <is>
+          <t>-43.45259627898031,169.76976793630396</t>
+        </is>
+      </c>
+      <c r="L637" t="inlineStr">
+        <is>
+          <t>-43.45200090042902,169.77013287031795</t>
+        </is>
+      </c>
+      <c r="M637" t="inlineStr">
+        <is>
+          <t>-43.45139852758773,169.77047641205766</t>
+        </is>
+      </c>
+      <c r="N637" t="inlineStr">
+        <is>
+          <t>-43.45080069525683,169.7708345114564</t>
+        </is>
+      </c>
+      <c r="O637" t="inlineStr">
+        <is>
+          <t>-43.450185739387784,169.77113903975743</t>
+        </is>
+      </c>
+      <c r="P637" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="638">
+      <c r="A638" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-26 22:26:13+00:00</t>
+        </is>
+      </c>
+      <c r="B638" t="inlineStr">
+        <is>
+          <t>-43.4577103375438,169.76593460252414</t>
+        </is>
+      </c>
+      <c r="C638" t="inlineStr">
+        <is>
+          <t>-43.45718662662156,169.76647027048696</t>
+        </is>
+      </c>
+      <c r="D638" t="inlineStr">
+        <is>
+          <t>-43.45664995677653,169.76697994272521</t>
+        </is>
+      </c>
+      <c r="E638" t="inlineStr">
+        <is>
+          <t>-43.45607628383955,169.76741536778064</t>
+        </is>
+      </c>
+      <c r="F638" t="inlineStr">
+        <is>
+          <t>-43.45551078760392,169.76784842778775</t>
+        </is>
+      </c>
+      <c r="G638" t="inlineStr">
+        <is>
+          <t>-43.45495501678281,169.76826074886432</t>
+        </is>
+      </c>
+      <c r="H638" t="inlineStr">
+        <is>
+          <t>-43.454362014035794,169.76860125838192</t>
+        </is>
+      </c>
+      <c r="I638" t="inlineStr">
+        <is>
+          <t>-43.453775684288075,169.76899775777065</t>
+        </is>
+      </c>
+      <c r="J638" t="inlineStr">
+        <is>
+          <t>-43.4531829676007,169.76937307329064</t>
+        </is>
+      </c>
+      <c r="K638" t="inlineStr">
+        <is>
+          <t>-43.452599317311716,169.769777793123</t>
+        </is>
+      </c>
+      <c r="L638" t="inlineStr">
+        <is>
+          <t>-43.45200999248531,169.77016151325128</t>
+        </is>
+      </c>
+      <c r="M638" t="inlineStr">
+        <is>
+          <t>-43.45141638587526,169.77053230165802</t>
+        </is>
+      </c>
+      <c r="N638" t="inlineStr">
+        <is>
+          <t>-43.45082017952941,169.77089548972188</t>
+        </is>
+      </c>
+      <c r="O638" t="inlineStr">
+        <is>
+          <t>-43.45019515767893,169.77116851527856</t>
+        </is>
+      </c>
+      <c r="P638" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="639">
+      <c r="A639" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-03 22:26:15+00:00</t>
+        </is>
+      </c>
+      <c r="B639" t="inlineStr">
+        <is>
+          <t>-43.45781094140526,169.76613649281896</t>
+        </is>
+      </c>
+      <c r="C639" t="inlineStr">
+        <is>
+          <t>-43.457293214149175,169.76668416912003</t>
+        </is>
+      </c>
+      <c r="D639" t="inlineStr">
+        <is>
+          <t>-43.45673898934213,169.76715861230656</t>
+        </is>
+      </c>
+      <c r="E639" t="inlineStr">
+        <is>
+          <t>-43.45612564519451,169.76751442531597</t>
+        </is>
+      </c>
+      <c r="F639" t="inlineStr">
+        <is>
+          <t>-43.45556656244747,169.76797203801036</t>
+        </is>
+      </c>
+      <c r="G639" t="inlineStr">
+        <is>
+          <t>-43.455002744275475,169.7683962582709</t>
+        </is>
+      </c>
+      <c r="H639" t="inlineStr">
+        <is>
+          <t>-43.45446075522394,169.7689290735142</t>
+        </is>
+      </c>
+      <c r="I639" t="inlineStr">
+        <is>
+          <t>-43.45387775782114,169.7693366365819</t>
+        </is>
+      </c>
+      <c r="J639" t="inlineStr">
+        <is>
+          <t>-43.4532651860654,169.76964603407222</t>
+        </is>
+      </c>
+      <c r="K639" t="inlineStr">
+        <is>
+          <t>-43.452677644210105,169.77003189902416</t>
+        </is>
+      </c>
+      <c r="L639" t="inlineStr">
+        <is>
+          <t>-43.45205782449345,169.77031220013475</t>
+        </is>
+      </c>
+      <c r="M639" t="inlineStr">
+        <is>
+          <t>-43.45144303570677,169.77061570564106</t>
+        </is>
+      </c>
+      <c r="N639" t="inlineStr">
+        <is>
+          <t>-43.45083663884861,169.7709470011571</t>
+        </is>
+      </c>
+      <c r="O639" t="inlineStr">
+        <is>
+          <t>-43.45020868886289,169.7712108625821</t>
+        </is>
+      </c>
+      <c r="P639" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="640">
+      <c r="A640" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-11 22:26:16+00:00</t>
+        </is>
+      </c>
+      <c r="B640" t="inlineStr">
+        <is>
+          <t>-43.45775003166307,169.76601425991498</t>
+        </is>
+      </c>
+      <c r="C640" t="inlineStr">
+        <is>
+          <t>-43.45719688196813,169.76649085073302</t>
+        </is>
+      </c>
+      <c r="D640" t="inlineStr">
+        <is>
+          <t>-43.45662238625809,169.76692461472544</t>
+        </is>
+      </c>
+      <c r="E640" t="inlineStr">
+        <is>
+          <t>-43.456077971360344,169.76741875426353</t>
+        </is>
+      </c>
+      <c r="F640" t="inlineStr">
+        <is>
+          <t>-43.455489074542946,169.76780030665694</t>
+        </is>
+      </c>
+      <c r="G640" t="inlineStr">
+        <is>
+          <t>-43.45493717335504,169.76821008740922</t>
+        </is>
+      </c>
+      <c r="H640" t="inlineStr">
+        <is>
+          <t>-43.454335953085724,169.76851473819838</t>
+        </is>
+      </c>
+      <c r="I640" t="inlineStr">
+        <is>
+          <t>-43.453752090817495,169.76891942930607</t>
+        </is>
+      </c>
+      <c r="J640" t="inlineStr">
+        <is>
+          <t>-43.45314509755578,169.76924734778777</t>
+        </is>
+      </c>
+      <c r="K640" t="inlineStr">
+        <is>
+          <t>-43.45258831086884,169.76974208653013</t>
+        </is>
+      </c>
+      <c r="L640" t="inlineStr">
+        <is>
+          <t>-43.45196108217202,169.77000743022512</t>
+        </is>
+      </c>
+      <c r="M640" t="inlineStr">
+        <is>
+          <t>-43.45137068982202,169.77038929074564</t>
+        </is>
+      </c>
+      <c r="N640" t="inlineStr">
+        <is>
+          <t>-43.45076725660494,169.77072986168466</t>
+        </is>
+      </c>
+      <c r="O640" t="inlineStr">
+        <is>
+          <t>-43.45011081328608,169.7709045518912</t>
+        </is>
+      </c>
+      <c r="P640" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="641">
+      <c r="A641" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-12 22:20:09+00:00</t>
+        </is>
+      </c>
+      <c r="B641" t="inlineStr">
+        <is>
+          <t>-43.45766078331578,169.76583515835466</t>
+        </is>
+      </c>
+      <c r="C641" t="inlineStr">
+        <is>
+          <t>-43.457142303486656,169.7663813237751</t>
+        </is>
+      </c>
+      <c r="D641" t="inlineStr">
+        <is>
+          <t>-43.45658759149396,169.7668547893904</t>
+        </is>
+      </c>
+      <c r="E641" t="inlineStr">
+        <is>
+          <t>-43.456037944921825,169.76733843011235</t>
+        </is>
+      </c>
+      <c r="F641" t="inlineStr">
+        <is>
+          <t>-43.45547462547716,169.76776828425128</t>
+        </is>
+      </c>
+      <c r="G641" t="inlineStr">
+        <is>
+          <t>-43.45490307359692,169.76811327087745</t>
+        </is>
+      </c>
+      <c r="H641" t="inlineStr">
+        <is>
+          <t>-43.45433023030685,169.76849573908765</t>
+        </is>
+      </c>
+      <c r="I641" t="inlineStr">
+        <is>
+          <t>-43.453719227169266,169.76881032497488</t>
+        </is>
+      </c>
+      <c r="J641" t="inlineStr">
+        <is>
+          <t>-43.45313465536479,169.76921268066067</t>
+        </is>
+      </c>
+      <c r="K641" t="inlineStr">
+        <is>
+          <t>-43.45256207265419,169.76965696592322</t>
+        </is>
+      </c>
+      <c r="L641" t="inlineStr">
+        <is>
+          <t>-43.45194570107688,169.76995897507274</t>
+        </is>
+      </c>
+      <c r="M641" t="inlineStr">
+        <is>
+          <t>-43.451350412660354,169.77032583134397</t>
+        </is>
+      </c>
+      <c r="N641" t="inlineStr">
+        <is>
+          <t>-43.450739065765596,169.7706416358113</t>
+        </is>
+      </c>
+      <c r="O641" t="inlineStr">
+        <is>
+          <t>-43.45008084665752,169.77081076925063</t>
+        </is>
+      </c>
+      <c r="P641" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="642">
+      <c r="A642" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-19 22:26:22+00:00</t>
+        </is>
+      </c>
+      <c r="B642" t="inlineStr">
+        <is>
+          <t>-43.45774028451253,169.7659946995022</t>
+        </is>
+      </c>
+      <c r="C642" t="inlineStr">
+        <is>
+          <t>-43.457181207541026,169.76645939557878</t>
+        </is>
+      </c>
+      <c r="D642" t="inlineStr">
+        <is>
+          <t>-43.45664689777656,169.76697380397636</t>
+        </is>
+      </c>
+      <c r="E642" t="inlineStr">
+        <is>
+          <t>-43.45607307247028,169.76740892327024</t>
+        </is>
+      </c>
+      <c r="F642" t="inlineStr">
+        <is>
+          <t>-43.45551530391817,169.7678584369874</t>
+        </is>
+      </c>
+      <c r="G642" t="inlineStr">
+        <is>
+          <t>-43.45496051078507,169.76827634757572</t>
+        </is>
+      </c>
+      <c r="H642" t="inlineStr">
+        <is>
+          <t>-43.45438701649425,169.7686842647321</t>
+        </is>
+      </c>
+      <c r="I642" t="inlineStr">
+        <is>
+          <t>-43.45377923648167,169.76900955079415</t>
+        </is>
+      </c>
+      <c r="J642" t="inlineStr">
+        <is>
+          <t>-43.45319989058216,169.76942925642425</t>
+        </is>
+      </c>
+      <c r="K642" t="inlineStr">
+        <is>
+          <t>-43.45257274690886,169.76969159473373</t>
+        </is>
+      </c>
+      <c r="L642" t="inlineStr">
+        <is>
+          <t>-43.45195181039274,169.76997822127504</t>
+        </is>
+      </c>
+      <c r="M642" t="inlineStr">
+        <is>
+          <t>-43.451356896226756,169.77034612229588</t>
+        </is>
+      </c>
+      <c r="N642" t="inlineStr">
+        <is>
+          <t>-43.45076939912469,169.7707365669129</t>
+        </is>
+      </c>
+      <c r="O642" t="inlineStr">
+        <is>
+          <t>-43.45014890384519,169.77102375941007</t>
+        </is>
+      </c>
+      <c r="P642" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="643">
+      <c r="A643" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-20 22:20:01+00:00</t>
+        </is>
+      </c>
+      <c r="B643" t="inlineStr">
+        <is>
+          <t>-43.45780444519978,169.76612345629178</t>
+        </is>
+      </c>
+      <c r="C643" t="inlineStr">
+        <is>
+          <t>-43.45726210599721,169.7666217414783</t>
+        </is>
+      </c>
+      <c r="D643" t="inlineStr">
+        <is>
+          <t>-43.456697365592376,169.76707508208716</t>
+        </is>
+      </c>
+      <c r="E643" t="inlineStr">
+        <is>
+          <t>-43.45611454933789,169.76749215830938</t>
+        </is>
+      </c>
+      <c r="F643" t="inlineStr">
+        <is>
+          <t>-43.45555096066372,169.76793746072195</t>
+        </is>
+      </c>
+      <c r="G643" t="inlineStr">
+        <is>
+          <t>-43.454959720662444,169.76827410423886</t>
+        </is>
+      </c>
+      <c r="H643" t="inlineStr">
+        <is>
+          <t>-43.45438411621929,169.76867463601582</t>
+        </is>
+      </c>
+      <c r="I643" t="inlineStr">
+        <is>
+          <t>-43.45379094725354,169.76904842973988</t>
+        </is>
+      </c>
+      <c r="J643" t="inlineStr">
+        <is>
+          <t>-43.453178880926195,169.76935950583072</t>
+        </is>
+      </c>
+      <c r="K643" t="inlineStr">
+        <is>
+          <t>-43.45257834279184,169.76970974859756</t>
+        </is>
+      </c>
+      <c r="L643" t="inlineStr">
+        <is>
+          <t>-43.451962232159644,169.7700110530413</t>
+        </is>
+      </c>
+      <c r="M643" t="inlineStr">
+        <is>
+          <t>-43.4513659035057,169.77037431147733</t>
+        </is>
+      </c>
+      <c r="N643" t="inlineStr">
+        <is>
+          <t>-43.450785994897345,169.77078850508758</t>
+        </is>
+      </c>
+      <c r="O643" t="inlineStr">
+        <is>
+          <t>-43.45016577600277,169.77107656237638</t>
+        </is>
+      </c>
+      <c r="P643" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="644">
+      <c r="A644" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-27 22:26:12+00:00</t>
+        </is>
+      </c>
+      <c r="B644" t="inlineStr">
+        <is>
+          <t>-43.45774888029167,169.7660119493621</t>
+        </is>
+      </c>
+      <c r="C644" t="inlineStr">
+        <is>
+          <t>-43.45724587018111,169.76658915959734</t>
+        </is>
+      </c>
+      <c r="D644" t="inlineStr">
+        <is>
+          <t>-43.456688301484085,169.76705689233555</t>
+        </is>
+      </c>
+      <c r="E644" t="inlineStr">
+        <is>
+          <t>-43.45612626037668,169.76751565985523</t>
+        </is>
+      </c>
+      <c r="F644" t="inlineStr">
+        <is>
+          <t>-43.45559102311877,169.76802624879568</t>
+        </is>
+      </c>
+      <c r="G644" t="inlineStr">
+        <is>
+          <t>-43.45501916402681,169.7684428779006</t>
+        </is>
+      </c>
+      <c r="H644" t="inlineStr">
+        <is>
+          <t>-43.45442541475803,169.76881174470117</t>
+        </is>
+      </c>
+      <c r="I644" t="inlineStr">
+        <is>
+          <t>-43.453796435957265,169.76906665187346</t>
+        </is>
+      </c>
+      <c r="J644" t="inlineStr">
+        <is>
+          <t>-43.45320967957143,169.76946175525023</t>
+        </is>
+      </c>
+      <c r="K644" t="inlineStr">
+        <is>
+          <t>-43.45260206850339,169.7697867184194</t>
+        </is>
+      </c>
+      <c r="L644" t="inlineStr">
+        <is>
+          <t>-43.45199791765807,169.77012347362634</t>
+        </is>
+      </c>
+      <c r="M644" t="inlineStr">
+        <is>
+          <t>-43.45139579172372,169.77046784986146</t>
+        </is>
+      </c>
+      <c r="N644" t="inlineStr">
+        <is>
+          <t>-43.4508159189867,169.770882155853</t>
+        </is>
+      </c>
+      <c r="O644" t="inlineStr">
+        <is>
+          <t>-43.45013442649028,169.77097845128168</t>
+        </is>
+      </c>
+      <c r="P644" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="645">
+      <c r="A645" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-13 22:20:10+00:00</t>
+        </is>
+      </c>
+      <c r="B645" t="inlineStr">
+        <is>
+          <t>-43.457646504007094,169.7658065030609</t>
+        </is>
+      </c>
+      <c r="C645" t="inlineStr">
+        <is>
+          <t>-43.45709897748549,169.76629437834464</t>
+        </is>
+      </c>
+      <c r="D645" t="inlineStr">
+        <is>
+          <t>-43.4565881220227,169.76685585404212</t>
+        </is>
+      </c>
+      <c r="E645" t="inlineStr">
+        <is>
+          <t>-43.456007287297716,169.76727690723138</t>
+        </is>
+      </c>
+      <c r="F645" t="inlineStr">
+        <is>
+          <t>-43.455457302378285,169.76772989238214</t>
+        </is>
+      </c>
+      <c r="G645" t="inlineStr">
+        <is>
+          <t>-43.45486358338465,169.76800115011014</t>
+        </is>
+      </c>
+      <c r="H645" t="inlineStr">
+        <is>
+          <t>-43.45429657748268,169.768384015022</t>
+        </is>
+      </c>
+      <c r="I645" t="inlineStr">
+        <is>
+          <t>-43.453718104211575,169.76880659686532</t>
+        </is>
+      </c>
+      <c r="J645" t="inlineStr">
+        <is>
+          <t>-43.45310789669849,169.76912384452606</t>
+        </is>
+      </c>
+      <c r="K645" t="inlineStr">
+        <is>
+          <t>-43.452511272144676,169.76949216242153</t>
+        </is>
+      </c>
+      <c r="L645" t="inlineStr">
+        <is>
+          <t>-43.451909224802385,169.76984406400757</t>
+        </is>
+      </c>
+      <c r="M645" t="inlineStr">
+        <is>
+          <t>-43.451333214056916,169.77027200671563</t>
+        </is>
+      </c>
+      <c r="N645" t="inlineStr">
+        <is>
+          <t>-43.45074217580683,169.7706513689625</t>
+        </is>
+      </c>
+      <c r="O645" t="inlineStr">
+        <is>
+          <t>-43.450096142065014,169.7708586372472</t>
+        </is>
+      </c>
+      <c r="P645" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0435/nzd0435.xlsx
+++ b/data/nzd0435/nzd0435.xlsx
@@ -37754,7 +37754,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W15"/>
+  <dimension ref="A1:X15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -37845,35 +37845,40 @@
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
+          <t>ERODIBILITY</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
           <t>geometry</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>land_x</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>land_y</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>sea_x</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>sea_y</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>center_x</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>center_y</t>
         </is>
@@ -37932,27 +37937,28 @@
       <c r="P2" t="n">
         <v>375.3288812448656</v>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr">
         <is>
           <t>LINESTRING (169.76961435698047 -43.4595438880161, 169.7605373067399 -43.45502056247977)</t>
         </is>
       </c>
-      <c r="R2" t="n">
+      <c r="S2" t="n">
         <v>169.7696143569805</v>
       </c>
-      <c r="S2" t="n">
+      <c r="T2" t="n">
         <v>-43.4595438880161</v>
       </c>
-      <c r="T2" t="n">
+      <c r="U2" t="n">
         <v>169.7605373067399</v>
       </c>
-      <c r="U2" t="n">
+      <c r="V2" t="n">
         <v>-43.45502056247977</v>
       </c>
-      <c r="V2" t="n">
+      <c r="W2" t="n">
         <v>169.7650758318602</v>
       </c>
-      <c r="W2" t="n">
+      <c r="X2" t="n">
         <v>-43.45728222524794</v>
       </c>
     </row>
@@ -38009,27 +38015,28 @@
       <c r="P3" t="n">
         <v>369.2006754887045</v>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr">
         <is>
           <t>LINESTRING (169.77010235905865 -43.458996424451826, 169.76102533535047 -43.454473112680965)</t>
         </is>
       </c>
-      <c r="R3" t="n">
+      <c r="S3" t="n">
         <v>169.7701023590587</v>
       </c>
-      <c r="S3" t="n">
+      <c r="T3" t="n">
         <v>-43.45899642445183</v>
       </c>
-      <c r="T3" t="n">
+      <c r="U3" t="n">
         <v>169.7610253353505</v>
       </c>
-      <c r="U3" t="n">
+      <c r="V3" t="n">
         <v>-43.45447311268097</v>
       </c>
-      <c r="V3" t="n">
+      <c r="W3" t="n">
         <v>169.7655638472046</v>
       </c>
-      <c r="W3" t="n">
+      <c r="X3" t="n">
         <v>-43.45673476856639</v>
       </c>
     </row>
@@ -38086,27 +38093,28 @@
       <c r="P4" t="n">
         <v>370.2742096027159</v>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr">
         <is>
           <t>LINESTRING (169.77059036113678 -43.45844895593095, 169.76151336396123 -43.45392565792542)</t>
         </is>
       </c>
-      <c r="R4" t="n">
+      <c r="S4" t="n">
         <v>169.7705903611368</v>
       </c>
-      <c r="S4" t="n">
+      <c r="T4" t="n">
         <v>-43.45844895593095</v>
       </c>
-      <c r="T4" t="n">
+      <c r="U4" t="n">
         <v>169.7615133639612</v>
       </c>
-      <c r="U4" t="n">
+      <c r="V4" t="n">
         <v>-43.45392565792542</v>
       </c>
-      <c r="V4" t="n">
+      <c r="W4" t="n">
         <v>169.766051862549</v>
       </c>
-      <c r="W4" t="n">
+      <c r="X4" t="n">
         <v>-43.45618730692819</v>
       </c>
     </row>
@@ -38163,27 +38171,28 @@
       <c r="P5" t="n">
         <v>376.9028389183122</v>
       </c>
-      <c r="Q5" t="inlineStr">
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="inlineStr">
         <is>
           <t>LINESTRING (169.77107836321477 -43.45790148245347, 169.7620013925722 -43.45337819821304)</t>
         </is>
       </c>
-      <c r="R5" t="n">
+      <c r="S5" t="n">
         <v>169.7710783632148</v>
       </c>
-      <c r="S5" t="n">
+      <c r="T5" t="n">
         <v>-43.45790148245347</v>
       </c>
-      <c r="T5" t="n">
+      <c r="U5" t="n">
         <v>169.7620013925722</v>
       </c>
-      <c r="U5" t="n">
+      <c r="V5" t="n">
         <v>-43.45337819821304</v>
       </c>
-      <c r="V5" t="n">
+      <c r="W5" t="n">
         <v>169.7665398778935</v>
       </c>
-      <c r="W5" t="n">
+      <c r="X5" t="n">
         <v>-43.45563984033326</v>
       </c>
     </row>
@@ -38240,27 +38249,28 @@
       <c r="P6" t="n">
         <v>383.1844434627386</v>
       </c>
-      <c r="Q6" t="inlineStr">
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr">
         <is>
           <t>LINESTRING (169.77167152799618 -43.45723572213621, 169.76232182375972 -43.45301686130909)</t>
         </is>
       </c>
-      <c r="R6" t="n">
+      <c r="S6" t="n">
         <v>169.7716715279962</v>
       </c>
-      <c r="S6" t="n">
+      <c r="T6" t="n">
         <v>-43.45723572213621</v>
       </c>
-      <c r="T6" t="n">
+      <c r="U6" t="n">
         <v>169.7623218237597</v>
       </c>
-      <c r="U6" t="n">
+      <c r="V6" t="n">
         <v>-43.45301686130909</v>
       </c>
-      <c r="V6" t="n">
+      <c r="W6" t="n">
         <v>169.7669966758779</v>
       </c>
-      <c r="W6" t="n">
+      <c r="X6" t="n">
         <v>-43.45512629172265</v>
       </c>
     </row>
@@ -38317,27 +38327,28 @@
       <c r="P7" t="n">
         <v>386.0828351366954</v>
       </c>
-      <c r="Q7" t="inlineStr">
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="inlineStr">
         <is>
           <t>LINESTRING (169.7722995720475 -43.4563774227995, 169.7623972252989 -43.4528896146267)</t>
         </is>
       </c>
-      <c r="R7" t="n">
+      <c r="S7" t="n">
         <v>169.7722995720475</v>
       </c>
-      <c r="S7" t="n">
+      <c r="T7" t="n">
         <v>-43.4563774227995</v>
       </c>
-      <c r="T7" t="n">
+      <c r="U7" t="n">
         <v>169.7623972252989</v>
       </c>
-      <c r="U7" t="n">
+      <c r="V7" t="n">
         <v>-43.4528896146267</v>
       </c>
-      <c r="V7" t="n">
+      <c r="W7" t="n">
         <v>169.7673483986732</v>
       </c>
-      <c r="W7" t="n">
+      <c r="X7" t="n">
         <v>-43.45463351871309</v>
       </c>
     </row>
@@ -38394,27 +38405,28 @@
       <c r="P8" t="n">
         <v>381.6856556767071</v>
       </c>
-      <c r="Q8" t="inlineStr">
+      <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="inlineStr">
         <is>
           <t>LINESTRING (169.77272225949204 -43.45560321013918, 169.76255742752775 -43.45254132882622)</t>
         </is>
       </c>
-      <c r="R8" t="n">
+      <c r="S8" t="n">
         <v>169.772722259492</v>
       </c>
-      <c r="S8" t="n">
+      <c r="T8" t="n">
         <v>-43.45560321013918</v>
       </c>
-      <c r="T8" t="n">
+      <c r="U8" t="n">
         <v>169.7625574275278</v>
       </c>
-      <c r="U8" t="n">
+      <c r="V8" t="n">
         <v>-43.45254132882622</v>
       </c>
-      <c r="V8" t="n">
+      <c r="W8" t="n">
         <v>169.7676398435099</v>
       </c>
-      <c r="W8" t="n">
+      <c r="X8" t="n">
         <v>-43.4540722694827</v>
       </c>
     </row>
@@ -38471,27 +38483,28 @@
       <c r="P9" t="n">
         <v>378.7936993537248</v>
       </c>
-      <c r="Q9" t="inlineStr">
+      <c r="Q9" t="inlineStr"/>
+      <c r="R9" t="inlineStr">
         <is>
           <t>LINESTRING (169.77304399076004 -43.45499436140424, 169.76287921351914 -43.45193249148985)</t>
         </is>
       </c>
-      <c r="R9" t="n">
+      <c r="S9" t="n">
         <v>169.77304399076</v>
       </c>
-      <c r="S9" t="n">
+      <c r="T9" t="n">
         <v>-43.45499436140424</v>
       </c>
-      <c r="T9" t="n">
+      <c r="U9" t="n">
         <v>169.7628792135191</v>
       </c>
-      <c r="U9" t="n">
+      <c r="V9" t="n">
         <v>-43.45193249148985</v>
       </c>
-      <c r="V9" t="n">
+      <c r="W9" t="n">
         <v>169.7679616021396</v>
       </c>
-      <c r="W9" t="n">
+      <c r="X9" t="n">
         <v>-43.45346342644704</v>
       </c>
     </row>
@@ -38548,27 +38561,28 @@
       <c r="P10" t="n">
         <v>374.9324712563275</v>
       </c>
-      <c r="Q10" t="inlineStr">
+      <c r="Q10" t="inlineStr"/>
+      <c r="R10" t="inlineStr">
         <is>
           <t>LINESTRING (169.77336572202833 -43.454385506539644, 169.76320099951 -43.45132364802346)</t>
         </is>
       </c>
-      <c r="R10" t="n">
+      <c r="S10" t="n">
         <v>169.7733657220283</v>
       </c>
-      <c r="S10" t="n">
+      <c r="T10" t="n">
         <v>-43.45438550653964</v>
       </c>
-      <c r="T10" t="n">
+      <c r="U10" t="n">
         <v>169.76320099951</v>
       </c>
-      <c r="U10" t="n">
+      <c r="V10" t="n">
         <v>-43.45132364802346</v>
       </c>
-      <c r="V10" t="n">
+      <c r="W10" t="n">
         <v>169.7682833607691</v>
       </c>
-      <c r="W10" t="n">
+      <c r="X10" t="n">
         <v>-43.45285457728156</v>
       </c>
     </row>
@@ -38625,27 +38639,28 @@
       <c r="P11" t="n">
         <v>368.0543453251823</v>
       </c>
-      <c r="Q11" t="inlineStr">
+      <c r="Q11" t="inlineStr"/>
+      <c r="R11" t="inlineStr">
         <is>
           <t>LINESTRING (169.77367401981908 -43.45380022692869, 169.7635443069526 -43.45067763874916)</t>
         </is>
       </c>
-      <c r="R11" t="n">
+      <c r="S11" t="n">
         <v>169.7736740198191</v>
       </c>
-      <c r="S11" t="n">
+      <c r="T11" t="n">
         <v>-43.45380022692869</v>
       </c>
-      <c r="T11" t="n">
+      <c r="U11" t="n">
         <v>169.7635443069526</v>
       </c>
-      <c r="U11" t="n">
+      <c r="V11" t="n">
         <v>-43.45067763874916</v>
       </c>
-      <c r="V11" t="n">
+      <c r="W11" t="n">
         <v>169.7686091633859</v>
       </c>
-      <c r="W11" t="n">
+      <c r="X11" t="n">
         <v>-43.45223893283892</v>
       </c>
     </row>
@@ -38702,27 +38717,28 @@
       <c r="P12" t="n">
         <v>364.4021505717162</v>
       </c>
-      <c r="Q12" t="inlineStr">
+      <c r="Q12" t="inlineStr"/>
+      <c r="R12" t="inlineStr">
         <is>
           <t>LINESTRING (169.77399170872255 -43.45322571409858, 169.76390831484272 -43.45002482332532)</t>
         </is>
       </c>
-      <c r="R12" t="n">
+      <c r="S12" t="n">
         <v>169.7739917087225</v>
       </c>
-      <c r="S12" t="n">
+      <c r="T12" t="n">
         <v>-43.45322571409858</v>
       </c>
-      <c r="T12" t="n">
+      <c r="U12" t="n">
         <v>169.7639083148427</v>
       </c>
-      <c r="U12" t="n">
+      <c r="V12" t="n">
         <v>-43.45002482332532</v>
       </c>
-      <c r="V12" t="n">
+      <c r="W12" t="n">
         <v>169.7689500117826</v>
       </c>
-      <c r="W12" t="n">
+      <c r="X12" t="n">
         <v>-43.45162526871195</v>
       </c>
     </row>
@@ -38779,27 +38795,28 @@
       <c r="P13" t="n">
         <v>360.5522454066348</v>
       </c>
-      <c r="Q13" t="inlineStr">
+      <c r="Q13" t="inlineStr"/>
+      <c r="R13" t="inlineStr">
         <is>
           <t>LINESTRING (169.7743271214804 -43.452628849460304, 169.7642544629189 -43.44941020781919)</t>
         </is>
       </c>
-      <c r="R13" t="n">
+      <c r="S13" t="n">
         <v>169.7743271214804</v>
       </c>
-      <c r="S13" t="n">
+      <c r="T13" t="n">
         <v>-43.4526288494603</v>
       </c>
-      <c r="T13" t="n">
+      <c r="U13" t="n">
         <v>169.7642544629189</v>
       </c>
-      <c r="U13" t="n">
+      <c r="V13" t="n">
         <v>-43.44941020781919</v>
       </c>
-      <c r="V13" t="n">
+      <c r="W13" t="n">
         <v>169.7692907921997</v>
       </c>
-      <c r="W13" t="n">
+      <c r="X13" t="n">
         <v>-43.45101952863975</v>
       </c>
     </row>
@@ -38856,27 +38873,28 @@
       <c r="P14" t="n">
         <v>359.5068428638411</v>
       </c>
-      <c r="Q14" t="inlineStr">
+      <c r="Q14" t="inlineStr"/>
+      <c r="R14" t="inlineStr">
         <is>
           <t>LINESTRING (169.77466664146553 -43.4520250823616, 169.76459403509696 -43.44880645246791)</t>
         </is>
       </c>
-      <c r="R14" t="n">
+      <c r="S14" t="n">
         <v>169.7746666414655</v>
       </c>
-      <c r="S14" t="n">
+      <c r="T14" t="n">
         <v>-43.4520250823616</v>
       </c>
-      <c r="T14" t="n">
+      <c r="U14" t="n">
         <v>169.764594035097</v>
       </c>
-      <c r="U14" t="n">
+      <c r="V14" t="n">
         <v>-43.44880645246791</v>
       </c>
-      <c r="V14" t="n">
+      <c r="W14" t="n">
         <v>169.7696303382812</v>
       </c>
-      <c r="W14" t="n">
+      <c r="X14" t="n">
         <v>-43.45041576741475</v>
       </c>
     </row>
@@ -38933,27 +38951,28 @@
       <c r="P15" t="n">
         <v>360.0844979155322</v>
       </c>
-      <c r="Q15" t="inlineStr">
+      <c r="Q15" t="inlineStr"/>
+      <c r="R15" t="inlineStr">
         <is>
           <t>LINESTRING (169.77500616145085 -43.451421309235805, 169.76493360727468 -43.4482026910891)</t>
         </is>
       </c>
-      <c r="R15" t="n">
+      <c r="S15" t="n">
         <v>169.7750061614508</v>
       </c>
-      <c r="S15" t="n">
+      <c r="T15" t="n">
         <v>-43.4514213092358</v>
       </c>
-      <c r="T15" t="n">
+      <c r="U15" t="n">
         <v>169.7649336072747</v>
       </c>
-      <c r="U15" t="n">
+      <c r="V15" t="n">
         <v>-43.4482026910891</v>
       </c>
-      <c r="V15" t="n">
+      <c r="W15" t="n">
         <v>169.7699698843628</v>
       </c>
-      <c r="W15" t="n">
+      <c r="X15" t="n">
         <v>-43.44981200016245</v>
       </c>
     </row>

--- a/data/nzd0435/nzd0435.xlsx
+++ b/data/nzd0435/nzd0435.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P645"/>
+  <dimension ref="A1:P653"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -31152,6 +31152,422 @@
         </is>
       </c>
     </row>
+    <row r="646">
+      <c r="A646" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-21 22:19:55+00:00</t>
+        </is>
+      </c>
+      <c r="B646" t="n">
+        <v>361.7522222222222</v>
+      </c>
+      <c r="C646" t="n">
+        <v>354.6757894736842</v>
+      </c>
+      <c r="D646" t="n">
+        <v>359.1511111111111</v>
+      </c>
+      <c r="E646" t="n">
+        <v>360.5411111111111</v>
+      </c>
+      <c r="F646" t="n">
+        <v>367.7233333333333</v>
+      </c>
+      <c r="G646" t="n">
+        <v>371.5923529411765</v>
+      </c>
+      <c r="H646" t="n">
+        <v>366.5157894736842</v>
+      </c>
+      <c r="I646" t="n">
+        <v>361.2633333333333</v>
+      </c>
+      <c r="J646" t="n">
+        <v>347.7323529411765</v>
+      </c>
+      <c r="K646" t="n">
+        <v>346.3166666666667</v>
+      </c>
+      <c r="L646" t="n">
+        <v>354.1</v>
+      </c>
+      <c r="M646" t="n">
+        <v>352.721935483871</v>
+      </c>
+      <c r="N646" t="n">
+        <v>343.5219354838709</v>
+      </c>
+      <c r="O646" t="n">
+        <v>355.1263636363636</v>
+      </c>
+      <c r="P646" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="647">
+      <c r="A647" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-08 22:26:14+00:00</t>
+        </is>
+      </c>
+      <c r="B647" t="n">
+        <v>355.3366666666667</v>
+      </c>
+      <c r="C647" t="n">
+        <v>341.0684210526315</v>
+      </c>
+      <c r="D647" t="n">
+        <v>351.6333333333333</v>
+      </c>
+      <c r="E647" t="n">
+        <v>359.0733333333333</v>
+      </c>
+      <c r="F647" t="n">
+        <v>361.83</v>
+      </c>
+      <c r="G647" t="n">
+        <v>366.5741176470588</v>
+      </c>
+      <c r="H647" t="n">
+        <v>360.1984210526315</v>
+      </c>
+      <c r="I647" t="n">
+        <v>359.35</v>
+      </c>
+      <c r="J647" t="n">
+        <v>356.7141176470589</v>
+      </c>
+      <c r="K647" t="n">
+        <v>358.8085714285714</v>
+      </c>
+      <c r="L647" t="n">
+        <v>354.07</v>
+      </c>
+      <c r="M647" t="n">
+        <v>353.4229032258065</v>
+      </c>
+      <c r="N647" t="n">
+        <v>355.5529032258065</v>
+      </c>
+      <c r="O647" t="n">
+        <v>355.3890909090909</v>
+      </c>
+      <c r="P647" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="648">
+      <c r="A648" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-24 22:26:03+00:00</t>
+        </is>
+      </c>
+      <c r="B648" t="n">
+        <v>345.7155555555556</v>
+      </c>
+      <c r="C648" t="n">
+        <v>338.7294736842105</v>
+      </c>
+      <c r="D648" t="n">
+        <v>340.5977777777778</v>
+      </c>
+      <c r="E648" t="n">
+        <v>353.8177777777778</v>
+      </c>
+      <c r="F648" t="n">
+        <v>359.1733333333333</v>
+      </c>
+      <c r="G648" t="n">
+        <v>357.734705882353</v>
+      </c>
+      <c r="H648" t="n">
+        <v>351.0394736842105</v>
+      </c>
+      <c r="I648" t="n">
+        <v>342.8633333333333</v>
+      </c>
+      <c r="J648" t="n">
+        <v>347.0247058823529</v>
+      </c>
+      <c r="K648" t="n">
+        <v>341.2695238095238</v>
+      </c>
+      <c r="L648" t="n">
+        <v>338.98</v>
+      </c>
+      <c r="M648" t="n">
+        <v>342.9009677419355</v>
+      </c>
+      <c r="N648" t="n">
+        <v>338.2609677419355</v>
+      </c>
+      <c r="O648" t="n">
+        <v>332.7163636363636</v>
+      </c>
+      <c r="P648" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="649">
+      <c r="A649" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-25 22:19:39+00:00</t>
+        </is>
+      </c>
+      <c r="B649" t="n">
+        <v>360.7822222222222</v>
+      </c>
+      <c r="C649" t="n">
+        <v>349.7421052631579</v>
+      </c>
+      <c r="D649" t="n">
+        <v>348.5511111111111</v>
+      </c>
+      <c r="E649" t="n">
+        <v>355.1711111111111</v>
+      </c>
+      <c r="F649" t="n">
+        <v>363.2233333333333</v>
+      </c>
+      <c r="G649" t="n">
+        <v>367.3617647058824</v>
+      </c>
+      <c r="H649" t="n">
+        <v>359.6721052631579</v>
+      </c>
+      <c r="I649" t="n">
+        <v>360.4333333333333</v>
+      </c>
+      <c r="J649" t="n">
+        <v>356.2417647058824</v>
+      </c>
+      <c r="K649" t="n">
+        <v>356.3209523809524</v>
+      </c>
+      <c r="L649" t="n">
+        <v>356.69</v>
+      </c>
+      <c r="M649" t="n">
+        <v>357.8277419354839</v>
+      </c>
+      <c r="N649" t="n">
+        <v>358.8177419354839</v>
+      </c>
+      <c r="O649" t="n">
+        <v>358.7036363636363</v>
+      </c>
+      <c r="P649" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="650">
+      <c r="A650" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-09 22:26:02+00:00</t>
+        </is>
+      </c>
+      <c r="B650" t="n">
+        <v>357.5277777777778</v>
+      </c>
+      <c r="C650" t="n">
+        <v>348.021052631579</v>
+      </c>
+      <c r="D650" t="n">
+        <v>352.1388888888889</v>
+      </c>
+      <c r="E650" t="n">
+        <v>360.4988888888889</v>
+      </c>
+      <c r="F650" t="n">
+        <v>370.2266666666667</v>
+      </c>
+      <c r="G650" t="n">
+        <v>374.2417647058824</v>
+      </c>
+      <c r="H650" t="n">
+        <v>365.171052631579</v>
+      </c>
+      <c r="I650" t="n">
+        <v>369.1466666666667</v>
+      </c>
+      <c r="J650" t="n">
+        <v>361.4217647058824</v>
+      </c>
+      <c r="K650" t="n">
+        <v>359.8790476190476</v>
+      </c>
+      <c r="L650" t="n">
+        <v>359.24</v>
+      </c>
+      <c r="M650" t="n">
+        <v>352.0212903225807</v>
+      </c>
+      <c r="N650" t="n">
+        <v>350.1112903225807</v>
+      </c>
+      <c r="O650" t="n">
+        <v>352.8154545454545</v>
+      </c>
+      <c r="P650" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="651">
+      <c r="A651" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-25 22:25:53+00:00</t>
+        </is>
+      </c>
+      <c r="B651" t="n">
+        <v>381.4555555555555</v>
+      </c>
+      <c r="C651" t="n">
+        <v>357.5752631578948</v>
+      </c>
+      <c r="D651" t="n">
+        <v>358.3777777777778</v>
+      </c>
+      <c r="E651" t="n">
+        <v>363.2277777777778</v>
+      </c>
+      <c r="F651" t="n">
+        <v>374.5333333333333</v>
+      </c>
+      <c r="G651" t="n">
+        <v>374.6994117647058</v>
+      </c>
+      <c r="H651" t="n">
+        <v>372.0052631578947</v>
+      </c>
+      <c r="I651" t="n">
+        <v>372.3933333333333</v>
+      </c>
+      <c r="J651" t="n">
+        <v>366.3694117647058</v>
+      </c>
+      <c r="K651" t="n">
+        <v>356.9723809523809</v>
+      </c>
+      <c r="L651" t="n">
+        <v>355.33</v>
+      </c>
+      <c r="M651" t="n">
+        <v>348.5693548387097</v>
+      </c>
+      <c r="N651" t="n">
+        <v>343.7893548387097</v>
+      </c>
+      <c r="O651" t="n">
+        <v>347.2190909090909</v>
+      </c>
+      <c r="P651" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="652">
+      <c r="A652" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-03 22:25:34+00:00</t>
+        </is>
+      </c>
+      <c r="B652" t="inlineStr"/>
+      <c r="C652" t="inlineStr"/>
+      <c r="D652" t="inlineStr"/>
+      <c r="E652" t="inlineStr"/>
+      <c r="F652" t="inlineStr"/>
+      <c r="G652" t="inlineStr"/>
+      <c r="H652" t="inlineStr"/>
+      <c r="I652" t="inlineStr"/>
+      <c r="J652" t="n">
+        <v>366.2664705882353</v>
+      </c>
+      <c r="K652" t="n">
+        <v>363.7471428571428</v>
+      </c>
+      <c r="L652" t="n">
+        <v>355.38</v>
+      </c>
+      <c r="M652" t="n">
+        <v>356.9412903225806</v>
+      </c>
+      <c r="N652" t="n">
+        <v>353.7912903225807</v>
+      </c>
+      <c r="O652" t="n">
+        <v>354.7436363636364</v>
+      </c>
+      <c r="P652" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="653">
+      <c r="A653" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-04 22:19:41+00:00</t>
+        </is>
+      </c>
+      <c r="B653" t="n">
+        <v>357.2533333333333</v>
+      </c>
+      <c r="C653" t="n">
+        <v>346.64</v>
+      </c>
+      <c r="D653" t="n">
+        <v>345.1366666666667</v>
+      </c>
+      <c r="E653" t="n">
+        <v>356.5566666666667</v>
+      </c>
+      <c r="F653" t="n">
+        <v>364.18</v>
+      </c>
+      <c r="G653" t="n">
+        <v>374.1041176470589</v>
+      </c>
+      <c r="H653" t="n">
+        <v>367.86</v>
+      </c>
+      <c r="I653" t="n">
+        <v>359.19</v>
+      </c>
+      <c r="J653" t="n">
+        <v>360.3941176470589</v>
+      </c>
+      <c r="K653" t="n">
+        <v>353.5714285714286</v>
+      </c>
+      <c r="L653" t="n">
+        <v>355.45</v>
+      </c>
+      <c r="M653" t="n">
+        <v>356.0325806451613</v>
+      </c>
+      <c r="N653" t="n">
+        <v>345.8625806451613</v>
+      </c>
+      <c r="O653" t="n">
+        <v>350.0263636363636</v>
+      </c>
+      <c r="P653" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -31163,7 +31579,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B657"/>
+  <dimension ref="A1:B665"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -37741,6 +38157,86 @@
       </c>
       <c r="B657" t="n">
         <v>0.64</v>
+      </c>
+    </row>
+    <row r="658">
+      <c r="A658" t="inlineStr">
+        <is>
+          <t>2025-02-21 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B658" t="n">
+        <v>-0.35</v>
+      </c>
+    </row>
+    <row r="659">
+      <c r="A659" t="inlineStr">
+        <is>
+          <t>2025-03-08 22:30:00+00:00</t>
+        </is>
+      </c>
+      <c r="B659" t="n">
+        <v>-0.06</v>
+      </c>
+    </row>
+    <row r="660">
+      <c r="A660" t="inlineStr">
+        <is>
+          <t>2025-03-24 22:30:00+00:00</t>
+        </is>
+      </c>
+      <c r="B660" t="n">
+        <v>-0.02</v>
+      </c>
+    </row>
+    <row r="661">
+      <c r="A661" t="inlineStr">
+        <is>
+          <t>2025-03-25 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B661" t="n">
+        <v>0.46</v>
+      </c>
+    </row>
+    <row r="662">
+      <c r="A662" t="inlineStr">
+        <is>
+          <t>2025-04-09 22:30:00+00:00</t>
+        </is>
+      </c>
+      <c r="B662" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="663">
+      <c r="A663" t="inlineStr">
+        <is>
+          <t>2025-04-25 22:30:00+00:00</t>
+        </is>
+      </c>
+      <c r="B663" t="n">
+        <v>1.15</v>
+      </c>
+    </row>
+    <row r="664">
+      <c r="A664" t="inlineStr">
+        <is>
+          <t>2025-05-03 22:30:00+00:00</t>
+        </is>
+      </c>
+      <c r="B664" t="n">
+        <v>-0.75</v>
+      </c>
+    </row>
+    <row r="665">
+      <c r="A665" t="inlineStr">
+        <is>
+          <t>2025-05-04 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B665" t="n">
+        <v>-0.57</v>
       </c>
     </row>
   </sheetData>
@@ -37914,28 +38410,28 @@
         <v>0.0496</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.8697439064098791</v>
+        <v>-0.8528400967917117</v>
       </c>
       <c r="J2" t="n">
-        <v>644</v>
+        <v>652</v>
       </c>
       <c r="K2" t="n">
-        <v>475</v>
+        <v>482</v>
       </c>
       <c r="L2" t="n">
-        <v>0.09422744040526465</v>
+        <v>0.09276303089350368</v>
       </c>
       <c r="M2" t="n">
-        <v>16.33008927701549</v>
+        <v>16.21458636195461</v>
       </c>
       <c r="N2" t="n">
-        <v>437.81106926172</v>
+        <v>433.55411524404</v>
       </c>
       <c r="O2" t="n">
-        <v>20.92393531966967</v>
+        <v>20.82196232933006</v>
       </c>
       <c r="P2" t="n">
-        <v>375.3288812448656</v>
+        <v>375.1741498909042</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -37992,28 +38488,28 @@
         <v>0.122</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.9753095488044391</v>
+        <v>-0.9663212208220919</v>
       </c>
       <c r="J3" t="n">
-        <v>644</v>
+        <v>652</v>
       </c>
       <c r="K3" t="n">
-        <v>488</v>
+        <v>495</v>
       </c>
       <c r="L3" t="n">
-        <v>0.1821951852806674</v>
+        <v>0.1829105163970642</v>
       </c>
       <c r="M3" t="n">
-        <v>12.44252824728298</v>
+        <v>12.35497558395771</v>
       </c>
       <c r="N3" t="n">
-        <v>253.6591553092927</v>
+        <v>250.8114465839634</v>
       </c>
       <c r="O3" t="n">
-        <v>15.92668061176881</v>
+        <v>15.83702770673725</v>
       </c>
       <c r="P3" t="n">
-        <v>369.2006754887045</v>
+        <v>369.1176073552678</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -38070,28 +38566,28 @@
         <v>0.1157</v>
       </c>
       <c r="I4" t="n">
-        <v>-1.036383282781337</v>
+        <v>-1.019510653753532</v>
       </c>
       <c r="J4" t="n">
-        <v>644</v>
+        <v>652</v>
       </c>
       <c r="K4" t="n">
-        <v>497</v>
+        <v>504</v>
       </c>
       <c r="L4" t="n">
-        <v>0.1983512137564815</v>
+        <v>0.1966353511443127</v>
       </c>
       <c r="M4" t="n">
-        <v>12.19424098500357</v>
+        <v>12.12730169013631</v>
       </c>
       <c r="N4" t="n">
-        <v>255.2383876508835</v>
+        <v>252.8581904655859</v>
       </c>
       <c r="O4" t="n">
-        <v>15.97618188588511</v>
+        <v>15.90151535123574</v>
       </c>
       <c r="P4" t="n">
-        <v>370.2742096027159</v>
+        <v>370.1184996627327</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -38148,28 +38644,28 @@
         <v>0.1108</v>
       </c>
       <c r="I5" t="n">
-        <v>-1.177036765861681</v>
+        <v>-1.149099252137224</v>
       </c>
       <c r="J5" t="n">
-        <v>644</v>
+        <v>652</v>
       </c>
       <c r="K5" t="n">
-        <v>511</v>
+        <v>518</v>
       </c>
       <c r="L5" t="n">
-        <v>0.271455901600527</v>
+        <v>0.2655271848395946</v>
       </c>
       <c r="M5" t="n">
-        <v>11.40979863518901</v>
+        <v>11.38854429089441</v>
       </c>
       <c r="N5" t="n">
-        <v>214.2039304472907</v>
+        <v>213.1376709090311</v>
       </c>
       <c r="O5" t="n">
-        <v>14.63570737775563</v>
+        <v>14.59923528507679</v>
       </c>
       <c r="P5" t="n">
-        <v>376.9028389183122</v>
+        <v>376.6417901116245</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -38226,28 +38722,28 @@
         <v>0.0893</v>
       </c>
       <c r="I6" t="n">
-        <v>-1.196772216621347</v>
+        <v>-1.163317753214381</v>
       </c>
       <c r="J6" t="n">
-        <v>644</v>
+        <v>652</v>
       </c>
       <c r="K6" t="n">
-        <v>487</v>
+        <v>494</v>
       </c>
       <c r="L6" t="n">
-        <v>0.2854999930521001</v>
+        <v>0.2769570202622954</v>
       </c>
       <c r="M6" t="n">
-        <v>11.22596654758052</v>
+        <v>11.23852368485605</v>
       </c>
       <c r="N6" t="n">
-        <v>205.5858409164829</v>
+        <v>205.3438927591201</v>
       </c>
       <c r="O6" t="n">
-        <v>14.33826492001326</v>
+        <v>14.3298252871108</v>
       </c>
       <c r="P6" t="n">
-        <v>383.1844434627386</v>
+        <v>382.8698584416471</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -38304,28 +38800,28 @@
         <v>0.1061</v>
       </c>
       <c r="I7" t="n">
-        <v>-1.250646175215328</v>
+        <v>-1.212486216674318</v>
       </c>
       <c r="J7" t="n">
-        <v>644</v>
+        <v>652</v>
       </c>
       <c r="K7" t="n">
-        <v>490</v>
+        <v>497</v>
       </c>
       <c r="L7" t="n">
-        <v>0.3083523249513213</v>
+        <v>0.2973603313737944</v>
       </c>
       <c r="M7" t="n">
-        <v>11.2590309171233</v>
+        <v>11.31249270864769</v>
       </c>
       <c r="N7" t="n">
-        <v>206.0055188448475</v>
+        <v>206.6816541169376</v>
       </c>
       <c r="O7" t="n">
-        <v>14.35289235118997</v>
+        <v>14.37642702888787</v>
       </c>
       <c r="P7" t="n">
-        <v>386.0828351366954</v>
+        <v>385.7311884969943</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -38382,28 +38878,28 @@
         <v>0.119</v>
       </c>
       <c r="I8" t="n">
-        <v>-1.310422134625505</v>
+        <v>-1.273029950003119</v>
       </c>
       <c r="J8" t="n">
-        <v>644</v>
+        <v>652</v>
       </c>
       <c r="K8" t="n">
-        <v>491</v>
+        <v>498</v>
       </c>
       <c r="L8" t="n">
-        <v>0.3340083626204466</v>
+        <v>0.3232892274632442</v>
       </c>
       <c r="M8" t="n">
-        <v>11.10265128996148</v>
+        <v>11.14522580801973</v>
       </c>
       <c r="N8" t="n">
-        <v>198.719836176967</v>
+        <v>199.4719090996627</v>
       </c>
       <c r="O8" t="n">
-        <v>14.0968023387209</v>
+        <v>14.12345244972569</v>
       </c>
       <c r="P8" t="n">
-        <v>381.6856556767071</v>
+        <v>381.3372828522903</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -38460,28 +38956,28 @@
         <v>0.0901</v>
       </c>
       <c r="I9" t="n">
-        <v>-1.310147700883477</v>
+        <v>-1.272669553680521</v>
       </c>
       <c r="J9" t="n">
-        <v>644</v>
+        <v>652</v>
       </c>
       <c r="K9" t="n">
-        <v>489</v>
+        <v>496</v>
       </c>
       <c r="L9" t="n">
-        <v>0.319830156331405</v>
+        <v>0.3087873456980098</v>
       </c>
       <c r="M9" t="n">
-        <v>11.68299676272818</v>
+        <v>11.7313536735372</v>
       </c>
       <c r="N9" t="n">
-        <v>215.0274875080443</v>
+        <v>216.1912177805157</v>
       </c>
       <c r="O9" t="n">
-        <v>14.66381558490301</v>
+        <v>14.70344237858998</v>
       </c>
       <c r="P9" t="n">
-        <v>378.7936993537248</v>
+        <v>378.4456044563165</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -38538,28 +39034,28 @@
         <v>0.1118</v>
       </c>
       <c r="I10" t="n">
-        <v>-1.316503278812619</v>
+        <v>-1.273996199944554</v>
       </c>
       <c r="J10" t="n">
-        <v>644</v>
+        <v>652</v>
       </c>
       <c r="K10" t="n">
-        <v>531</v>
+        <v>539</v>
       </c>
       <c r="L10" t="n">
-        <v>0.2904251119130206</v>
+        <v>0.2790928220255573</v>
       </c>
       <c r="M10" t="n">
-        <v>12.49071598419768</v>
+        <v>12.53104676183067</v>
       </c>
       <c r="N10" t="n">
-        <v>250.9343418652163</v>
+        <v>251.7290198722159</v>
       </c>
       <c r="O10" t="n">
-        <v>15.84090722986585</v>
+        <v>15.8659704989079</v>
       </c>
       <c r="P10" t="n">
-        <v>374.9324712563275</v>
+        <v>374.5403316993171</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -38616,28 +39112,28 @@
         <v>0.1528</v>
       </c>
       <c r="I11" t="n">
-        <v>-1.2220547008886</v>
+        <v>-1.176791669628807</v>
       </c>
       <c r="J11" t="n">
-        <v>644</v>
+        <v>652</v>
       </c>
       <c r="K11" t="n">
-        <v>536</v>
+        <v>544</v>
       </c>
       <c r="L11" t="n">
-        <v>0.2519371367484255</v>
+        <v>0.2394459464074571</v>
       </c>
       <c r="M11" t="n">
-        <v>12.78023669185936</v>
+        <v>12.83013748916854</v>
       </c>
       <c r="N11" t="n">
-        <v>262.8070978519089</v>
+        <v>264.0446127388631</v>
       </c>
       <c r="O11" t="n">
-        <v>16.21132622125374</v>
+        <v>16.24944961341347</v>
       </c>
       <c r="P11" t="n">
-        <v>368.0543453251823</v>
+        <v>367.6359353315981</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -38694,28 +39190,28 @@
         <v>0.1281</v>
       </c>
       <c r="I12" t="n">
-        <v>-1.179349814244996</v>
+        <v>-1.127651497606692</v>
       </c>
       <c r="J12" t="n">
-        <v>644</v>
+        <v>652</v>
       </c>
       <c r="K12" t="n">
-        <v>513</v>
+        <v>521</v>
       </c>
       <c r="L12" t="n">
-        <v>0.2384042277307367</v>
+        <v>0.2236534052180019</v>
       </c>
       <c r="M12" t="n">
-        <v>12.62267218385516</v>
+        <v>12.7083007936651</v>
       </c>
       <c r="N12" t="n">
-        <v>264.5904408839167</v>
+        <v>266.4814639836129</v>
       </c>
       <c r="O12" t="n">
-        <v>16.26623622366024</v>
+        <v>16.32425998272549</v>
       </c>
       <c r="P12" t="n">
-        <v>364.4021505717162</v>
+        <v>363.9283811982082</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -38772,28 +39268,28 @@
         <v>0.2</v>
       </c>
       <c r="I13" t="n">
-        <v>-1.241127081009362</v>
+        <v>-1.173693621132783</v>
       </c>
       <c r="J13" t="n">
-        <v>644</v>
+        <v>652</v>
       </c>
       <c r="K13" t="n">
-        <v>476</v>
+        <v>484</v>
       </c>
       <c r="L13" t="n">
-        <v>0.2628621848382299</v>
+        <v>0.2407817827843994</v>
       </c>
       <c r="M13" t="n">
-        <v>12.62063648463549</v>
+        <v>12.80046891361386</v>
       </c>
       <c r="N13" t="n">
-        <v>253.4275370832649</v>
+        <v>258.3522870600296</v>
       </c>
       <c r="O13" t="n">
-        <v>15.9194075606872</v>
+        <v>16.07334088047751</v>
       </c>
       <c r="P13" t="n">
-        <v>360.5522454066348</v>
+        <v>359.9206534794502</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -38850,28 +39346,28 @@
         <v>0.2</v>
       </c>
       <c r="I14" t="n">
-        <v>-1.332398177864022</v>
+        <v>-1.269034298382019</v>
       </c>
       <c r="J14" t="n">
-        <v>644</v>
+        <v>652</v>
       </c>
       <c r="K14" t="n">
-        <v>497</v>
+        <v>505</v>
       </c>
       <c r="L14" t="n">
-        <v>0.1984732483423978</v>
+        <v>0.184614604578032</v>
       </c>
       <c r="M14" t="n">
-        <v>14.09570995627491</v>
+        <v>14.17622435033286</v>
       </c>
       <c r="N14" t="n">
-        <v>418.626200172546</v>
+        <v>420.7580783642093</v>
       </c>
       <c r="O14" t="n">
-        <v>20.46035679484955</v>
+        <v>20.51238841198677</v>
       </c>
       <c r="P14" t="n">
-        <v>359.5068428638411</v>
+        <v>358.9101138254373</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -38928,28 +39424,28 @@
         <v>0.066</v>
       </c>
       <c r="I15" t="n">
-        <v>-1.177816772758971</v>
+        <v>-1.117057559412676</v>
       </c>
       <c r="J15" t="n">
-        <v>644</v>
+        <v>652</v>
       </c>
       <c r="K15" t="n">
-        <v>464</v>
+        <v>472</v>
       </c>
       <c r="L15" t="n">
-        <v>0.07707244508733779</v>
+        <v>0.07138289823818889</v>
       </c>
       <c r="M15" t="n">
-        <v>17.93774458632383</v>
+        <v>17.84752049753756</v>
       </c>
       <c r="N15" t="n">
-        <v>976.9732263399773</v>
+        <v>968.3223543054709</v>
       </c>
       <c r="O15" t="n">
-        <v>31.25657093060557</v>
+        <v>31.11787837088947</v>
       </c>
       <c r="P15" t="n">
-        <v>360.0844979155322</v>
+        <v>359.5174892364194</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -38987,7 +39483,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P645"/>
+  <dimension ref="A1:P653"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -83601,6 +84097,630 @@
         </is>
       </c>
     </row>
+    <row r="646">
+      <c r="A646" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-21 22:19:55+00:00</t>
+        </is>
+      </c>
+      <c r="B646" t="inlineStr">
+        <is>
+          <t>-43.45770639239812,169.76592668549364</t>
+        </is>
+      </c>
+      <c r="C646" t="inlineStr">
+        <is>
+          <t>-43.45719488490274,169.7664868430568</t>
+        </is>
+      </c>
+      <c r="D646" t="inlineStr">
+        <is>
+          <t>-43.45662469461977,169.7669292470985</t>
+        </is>
+      </c>
+      <c r="E646" t="inlineStr">
+        <is>
+          <t>-43.45607017151428,169.76740310169203</t>
+        </is>
+      </c>
+      <c r="F646" t="inlineStr">
+        <is>
+          <t>-43.45549373298311,169.76781063082387</t>
+        </is>
+      </c>
+      <c r="G646" t="inlineStr">
+        <is>
+          <t>-43.454922313029684,169.76816789571487</t>
+        </is>
+      </c>
+      <c r="H646" t="inlineStr">
+        <is>
+          <t>-43.4543433331682,169.76853923942824</t>
+        </is>
+      </c>
+      <c r="I646" t="inlineStr">
+        <is>
+          <t>-43.45375254916613,169.7689209509852</t>
+        </is>
+      </c>
+      <c r="J646" t="inlineStr">
+        <is>
+          <t>-43.45319021684385,169.76939714026403</t>
+        </is>
+      </c>
+      <c r="K646" t="inlineStr">
+        <is>
+          <t>-43.452586185704284,169.76973519217512</t>
+        </is>
+      </c>
+      <c r="L646" t="inlineStr">
+        <is>
+          <t>-43.45195324787838,169.76998274979383</t>
+        </is>
+      </c>
+      <c r="M646" t="inlineStr">
+        <is>
+          <t>-43.45135430723024,169.7703380197775</t>
+        </is>
+      </c>
+      <c r="N646" t="inlineStr">
+        <is>
+          <t>-43.45078379409661,169.7707816174499</t>
+        </is>
+      </c>
+      <c r="O646" t="inlineStr">
+        <is>
+          <t>-43.450138095928146,169.77098993509608</t>
+        </is>
+      </c>
+      <c r="P646" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="647">
+      <c r="A647" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-08 22:26:14+00:00</t>
+        </is>
+      </c>
+      <c r="B647" t="inlineStr">
+        <is>
+          <t>-43.4577389807533,169.76599208314173</t>
+        </is>
+      </c>
+      <c r="C647" t="inlineStr">
+        <is>
+          <t>-43.45726400414078,169.76662555065707</t>
+        </is>
+      </c>
+      <c r="D647" t="inlineStr">
+        <is>
+          <t>-43.45666288133018,169.76700587951245</t>
+        </is>
+      </c>
+      <c r="E647" t="inlineStr">
+        <is>
+          <t>-43.45607762708353,169.76741806337571</t>
+        </is>
+      </c>
+      <c r="F647" t="inlineStr">
+        <is>
+          <t>-43.45552165202282,169.767872505865</t>
+        </is>
+      </c>
+      <c r="G647" t="inlineStr">
+        <is>
+          <t>-43.45494196477593,169.76822369130838</t>
+        </is>
+      </c>
+      <c r="H647" t="inlineStr">
+        <is>
+          <t>-43.45436505001294,169.76861133759192</t>
+        </is>
+      </c>
+      <c r="I647" t="inlineStr">
+        <is>
+          <t>-43.45375912646689,169.76894278708343</t>
+        </is>
+      </c>
+      <c r="J647" t="inlineStr">
+        <is>
+          <t>-43.45315934130258,169.7692946358101</t>
+        </is>
+      </c>
+      <c r="K647" t="inlineStr">
+        <is>
+          <t>-43.452542391866224,169.7695931187487</t>
+        </is>
+      </c>
+      <c r="L647" t="inlineStr">
+        <is>
+          <t>-43.451953355689795,169.76998308943274</t>
+        </is>
+      </c>
+      <c r="M647" t="inlineStr">
+        <is>
+          <t>-43.45135177418628,169.77033009237053</t>
+        </is>
+      </c>
+      <c r="N647" t="inlineStr">
+        <is>
+          <t>-43.450740318874516,169.7706455575269</t>
+        </is>
+      </c>
+      <c r="O647" t="inlineStr">
+        <is>
+          <t>-43.450137146539234,169.77098696390314</t>
+        </is>
+      </c>
+      <c r="P647" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="648">
+      <c r="A648" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-24 22:26:03+00:00</t>
+        </is>
+      </c>
+      <c r="B648" t="inlineStr">
+        <is>
+          <t>-43.457787851931734,169.76609015709548</t>
+        </is>
+      </c>
+      <c r="C648" t="inlineStr">
+        <is>
+          <t>-43.45727588491278,169.7666493929025</t>
+        </is>
+      </c>
+      <c r="D648" t="inlineStr">
+        <is>
+          <t>-43.45671893657879,169.76711837054697</t>
+        </is>
+      </c>
+      <c r="E648" t="inlineStr">
+        <is>
+          <t>-43.456104322634275,169.76747163552125</t>
+        </is>
+      </c>
+      <c r="F648" t="inlineStr">
+        <is>
+          <t>-43.4555342376881,169.7679003986486</t>
+        </is>
+      </c>
+      <c r="G648" t="inlineStr">
+        <is>
+          <t>-43.454976580442,169.76832197300584</t>
+        </is>
+      </c>
+      <c r="H648" t="inlineStr">
+        <is>
+          <t>-43.454396535107904,169.7687158659093</t>
+        </is>
+      </c>
+      <c r="I648" t="inlineStr">
+        <is>
+          <t>-43.45381580109,169.76913094293593</t>
+        </is>
+      </c>
+      <c r="J648" t="inlineStr">
+        <is>
+          <t>-43.45319264943397,169.7694052162958</t>
+        </is>
+      </c>
+      <c r="K648" t="inlineStr">
+        <is>
+          <t>-43.45260387981552,169.76979259460103</t>
+        </is>
+      </c>
+      <c r="L648" t="inlineStr">
+        <is>
+          <t>-43.45200758470824,169.77015392796767</t>
+        </is>
+      </c>
+      <c r="M648" t="inlineStr">
+        <is>
+          <t>-43.451389796600736,169.77044908745478</t>
+        </is>
+      </c>
+      <c r="N648" t="inlineStr">
+        <is>
+          <t>-43.45080280513172,169.77084111454514</t>
+        </is>
+      </c>
+      <c r="O648" t="inlineStr">
+        <is>
+          <t>-43.450219076229104,169.77124337101347</t>
+        </is>
+      </c>
+      <c r="P648" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="649">
+      <c r="A649" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-25 22:19:39+00:00</t>
+        </is>
+      </c>
+      <c r="B649" t="inlineStr">
+        <is>
+          <t>-43.457711319597145,169.76593657328726</t>
+        </is>
+      </c>
+      <c r="C649" t="inlineStr">
+        <is>
+          <t>-43.457219945791316,169.7665371348524</t>
+        </is>
+      </c>
+      <c r="D649" t="inlineStr">
+        <is>
+          <t>-43.45667853752875,169.76703729815102</t>
+        </is>
+      </c>
+      <c r="E649" t="inlineStr">
+        <is>
+          <t>-43.45609744839113,169.76745784040602</t>
+        </is>
+      </c>
+      <c r="F649" t="inlineStr">
+        <is>
+          <t>-43.45551505125725,169.76785787703213</t>
+        </is>
+      </c>
+      <c r="G649" t="inlineStr">
+        <is>
+          <t>-43.4549388802989,169.76821493379805</t>
+        </is>
+      </c>
+      <c r="H649" t="inlineStr">
+        <is>
+          <t>-43.454366859295696,169.76861734427297</t>
+        </is>
+      </c>
+      <c r="I649" t="inlineStr">
+        <is>
+          <t>-43.45375540238596,169.76893042343835</t>
+        </is>
+      </c>
+      <c r="J649" t="inlineStr">
+        <is>
+          <t>-43.45316096505617,169.76930002653867</t>
+        </is>
+      </c>
+      <c r="K649" t="inlineStr">
+        <is>
+          <t>-43.4525511129186,169.7696214110192</t>
+        </is>
+      </c>
+      <c r="L649" t="inlineStr">
+        <is>
+          <t>-43.45194394015585,169.7699534276387</t>
+        </is>
+      </c>
+      <c r="M649" t="inlineStr">
+        <is>
+          <t>-43.451335856679776,169.77028027704245</t>
+        </is>
+      </c>
+      <c r="N649" t="inlineStr">
+        <is>
+          <t>-43.45072852099461,169.7706086350372</t>
+        </is>
+      </c>
+      <c r="O649" t="inlineStr">
+        <is>
+          <t>-43.450125169121065,169.77094947958807</t>
+        </is>
+      </c>
+      <c r="P649" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="650">
+      <c r="A650" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-09 22:26:02+00:00</t>
+        </is>
+      </c>
+      <c r="B650" t="inlineStr">
+        <is>
+          <t>-43.45772785082371,169.76596974780946</t>
+        </is>
+      </c>
+      <c r="C650" t="inlineStr">
+        <is>
+          <t>-43.45722868795682,169.766554678512</t>
+        </is>
+      </c>
+      <c r="D650" t="inlineStr">
+        <is>
+          <t>-43.45666031335163,169.76700072613244</t>
+        </is>
+      </c>
+      <c r="E650" t="inlineStr">
+        <is>
+          <t>-43.456070385981846,169.7674035320811</t>
+        </is>
+      </c>
+      <c r="F650" t="inlineStr">
+        <is>
+          <t>-43.45548187369812,169.76778434794792</t>
+        </is>
+      </c>
+      <c r="G650" t="inlineStr">
+        <is>
+          <t>-43.45491193774482,169.7681384380634</t>
+        </is>
+      </c>
+      <c r="H650" t="inlineStr">
+        <is>
+          <t>-43.45434795589439,169.76855458648765</t>
+        </is>
+      </c>
+      <c r="I650" t="inlineStr">
+        <is>
+          <t>-43.45372544926939,169.76883098174778</t>
+        </is>
+      </c>
+      <c r="J650" t="inlineStr">
+        <is>
+          <t>-43.45314315835027,169.7692409097979</t>
+        </is>
+      </c>
+      <c r="K650" t="inlineStr">
+        <is>
+          <t>-43.452538639007,169.76958094397642</t>
+        </is>
+      </c>
+      <c r="L650" t="inlineStr">
+        <is>
+          <t>-43.451934776174824,169.7699245583445</t>
+        </is>
+      </c>
+      <c r="M650" t="inlineStr">
+        <is>
+          <t>-43.45135683910797,169.77034594353702</t>
+        </is>
+      </c>
+      <c r="N650" t="inlineStr">
+        <is>
+          <t>-43.45075998275921,169.77070709747494</t>
+        </is>
+      </c>
+      <c r="O650" t="inlineStr">
+        <is>
+          <t>-43.45014644660532,169.77101606926098</t>
+        </is>
+      </c>
+      <c r="P650" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="651">
+      <c r="A651" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-25 22:25:53+00:00</t>
+        </is>
+      </c>
+      <c r="B651" t="inlineStr">
+        <is>
+          <t>-43.457606307434446,169.76572583791645</t>
+        </is>
+      </c>
+      <c r="C651" t="inlineStr">
+        <is>
+          <t>-43.45718015687556,169.7664572871237</t>
+        </is>
+      </c>
+      <c r="D651" t="inlineStr">
+        <is>
+          <t>-43.456628622784955,169.76693713006176</t>
+        </is>
+      </c>
+      <c r="E651" t="inlineStr">
+        <is>
+          <t>-43.45605652460072,169.7673757153648</t>
+        </is>
+      </c>
+      <c r="F651" t="inlineStr">
+        <is>
+          <t>-43.45546147129291,169.76773913162663</t>
+        </is>
+      </c>
+      <c r="G651" t="inlineStr">
+        <is>
+          <t>-43.454910145565655,169.76813334968685</t>
+        </is>
+      </c>
+      <c r="H651" t="inlineStr">
+        <is>
+          <t>-43.45432446229265,169.76847658981387</t>
+        </is>
+      </c>
+      <c r="I651" t="inlineStr">
+        <is>
+          <t>-43.453714288446335,169.7687939289023</t>
+        </is>
+      </c>
+      <c r="J651" t="inlineStr">
+        <is>
+          <t>-43.453126150350464,169.76918444481848</t>
+        </is>
+      </c>
+      <c r="K651" t="inlineStr">
+        <is>
+          <t>-43.45254882915209,169.76961400216956</t>
+        </is>
+      </c>
+      <c r="L651" t="inlineStr">
+        <is>
+          <t>-43.451948827609506,169.7699688245993</t>
+        </is>
+      </c>
+      <c r="M651" t="inlineStr">
+        <is>
+          <t>-43.45136931314429,169.77038498229047</t>
+        </is>
+      </c>
+      <c r="N651" t="inlineStr">
+        <is>
+          <t>-43.45078282774913,169.7707785931642</t>
+        </is>
+      </c>
+      <c r="O651" t="inlineStr">
+        <is>
+          <t>-43.45016666954316,169.771079358796</t>
+        </is>
+      </c>
+      <c r="P651" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="652">
+      <c r="A652" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-03 22:25:34+00:00</t>
+        </is>
+      </c>
+      <c r="B652" t="inlineStr"/>
+      <c r="C652" t="inlineStr"/>
+      <c r="D652" t="inlineStr"/>
+      <c r="E652" t="inlineStr"/>
+      <c r="F652" t="inlineStr"/>
+      <c r="G652" t="inlineStr"/>
+      <c r="H652" t="inlineStr"/>
+      <c r="I652" t="inlineStr"/>
+      <c r="J652" t="inlineStr">
+        <is>
+          <t>-43.45312650422066,169.76918561963342</t>
+        </is>
+      </c>
+      <c r="K652" t="inlineStr">
+        <is>
+          <t>-43.452525078286804,169.76953695125138</t>
+        </is>
+      </c>
+      <c r="L652" t="inlineStr">
+        <is>
+          <t>-43.45194864792374,169.7699682585345</t>
+        </is>
+      </c>
+      <c r="M652" t="inlineStr">
+        <is>
+          <t>-43.4513390599995,169.77029030212424</t>
+        </is>
+      </c>
+      <c r="N652" t="inlineStr">
+        <is>
+          <t>-43.4507466846658,169.77066547984472</t>
+        </is>
+      </c>
+      <c r="O652" t="inlineStr">
+        <is>
+          <t>-43.45013947894785,169.77099426337386</t>
+        </is>
+      </c>
+      <c r="P652" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="653">
+      <c r="A653" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-04 22:19:41+00:00</t>
+        </is>
+      </c>
+      <c r="B653" t="inlineStr">
+        <is>
+          <t>-43.45772924488712,169.76597254538865</t>
+        </is>
+      </c>
+      <c r="C653" t="inlineStr">
+        <is>
+          <t>-43.45723570307496,169.76656875636363</t>
+        </is>
+      </c>
+      <c r="D653" t="inlineStr">
+        <is>
+          <t>-43.45669588124607,169.76707210331676</t>
+        </is>
+      </c>
+      <c r="E653" t="inlineStr">
+        <is>
+          <t>-43.4560904104739,169.76744371683898</t>
+        </is>
+      </c>
+      <c r="F653" t="inlineStr">
+        <is>
+          <t>-43.45551051915164,169.76784783283537</t>
+        </is>
+      </c>
+      <c r="G653" t="inlineStr">
+        <is>
+          <t>-43.45491247678067,169.76813996850066</t>
+        </is>
+      </c>
+      <c r="H653" t="inlineStr">
+        <is>
+          <t>-43.4543387122493,169.76852389837796</t>
+        </is>
+      </c>
+      <c r="I653" t="inlineStr">
+        <is>
+          <t>-43.45375967648489,169.76894461309882</t>
+        </is>
+      </c>
+      <c r="J653" t="inlineStr">
+        <is>
+          <t>-43.45314669097984,169.76925263781524</t>
+        </is>
+      </c>
+      <c r="K653" t="inlineStr">
+        <is>
+          <t>-43.45256075214435,169.7696526820034</t>
+        </is>
+      </c>
+      <c r="L653" t="inlineStr">
+        <is>
+          <t>-43.45194839636368,169.76996746604385</t>
+        </is>
+      </c>
+      <c r="M653" t="inlineStr">
+        <is>
+          <t>-43.45134234375105,169.77030057892864</t>
+        </is>
+      </c>
+      <c r="N653" t="inlineStr">
+        <is>
+          <t>-43.45077533593072,169.77075514674542</t>
+        </is>
+      </c>
+      <c r="O653" t="inlineStr">
+        <is>
+          <t>-43.450156525227705,169.7710476112135</t>
+        </is>
+      </c>
+      <c r="P653" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0435/nzd0435.xlsx
+++ b/data/nzd0435/nzd0435.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Tides" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transects" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Tides" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Transects" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P653"/>
+  <dimension ref="A1:P654"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -31568,6 +31568,58 @@
         </is>
       </c>
     </row>
+    <row r="654">
+      <c r="A654" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-12 22:25:42+00:00</t>
+        </is>
+      </c>
+      <c r="B654" t="n">
+        <v>387.1655555555556</v>
+      </c>
+      <c r="C654" t="n">
+        <v>368.141052631579</v>
+      </c>
+      <c r="D654" t="n">
+        <v>369.0877777777778</v>
+      </c>
+      <c r="E654" t="n">
+        <v>367.3677777777777</v>
+      </c>
+      <c r="F654" t="n">
+        <v>366.5833333333333</v>
+      </c>
+      <c r="G654" t="n">
+        <v>383.3364705882353</v>
+      </c>
+      <c r="H654" t="n">
+        <v>373.911052631579</v>
+      </c>
+      <c r="I654" t="n">
+        <v>373.2533333333333</v>
+      </c>
+      <c r="J654" t="n">
+        <v>385.1164705882353</v>
+      </c>
+      <c r="K654" t="n">
+        <v>363.2295238095238</v>
+      </c>
+      <c r="L654" t="n">
+        <v>357.15</v>
+      </c>
+      <c r="M654" t="n">
+        <v>343.7754838709677</v>
+      </c>
+      <c r="N654" t="n">
+        <v>333.7554838709677</v>
+      </c>
+      <c r="O654" t="inlineStr"/>
+      <c r="P654" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -31579,7 +31631,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B665"/>
+  <dimension ref="A1:B666"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -38237,6 +38289,16 @@
       </c>
       <c r="B665" t="n">
         <v>-0.57</v>
+      </c>
+    </row>
+    <row r="666">
+      <c r="A666" t="inlineStr">
+        <is>
+          <t>2025-06-12 22:30:00+00:00</t>
+        </is>
+      </c>
+      <c r="B666" t="n">
+        <v>0.61</v>
       </c>
     </row>
   </sheetData>
@@ -38410,28 +38472,28 @@
         <v>0.0496</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.8528400967917117</v>
+        <v>-0.8406237236645926</v>
       </c>
       <c r="J2" t="n">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="K2" t="n">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="L2" t="n">
-        <v>0.09276303089350368</v>
+        <v>0.09023336413914507</v>
       </c>
       <c r="M2" t="n">
-        <v>16.21458636195461</v>
+        <v>16.24566954525609</v>
       </c>
       <c r="N2" t="n">
-        <v>433.55411524404</v>
+        <v>435.0142815436726</v>
       </c>
       <c r="O2" t="n">
-        <v>20.82196232933006</v>
+        <v>20.8569959856081</v>
       </c>
       <c r="P2" t="n">
-        <v>375.1741498909042</v>
+        <v>375.0611986911916</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -38488,28 +38550,28 @@
         <v>0.122</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.9663212208220919</v>
+        <v>-0.9578781777207451</v>
       </c>
       <c r="J3" t="n">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="K3" t="n">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="L3" t="n">
-        <v>0.1829105163970642</v>
+        <v>0.1801923250834713</v>
       </c>
       <c r="M3" t="n">
-        <v>12.35497558395771</v>
+        <v>12.3779890370872</v>
       </c>
       <c r="N3" t="n">
-        <v>250.8114465839634</v>
+        <v>251.4399216508119</v>
       </c>
       <c r="O3" t="n">
-        <v>15.83702770673725</v>
+        <v>15.85685724381764</v>
       </c>
       <c r="P3" t="n">
-        <v>369.1176073552678</v>
+        <v>369.0387337251305</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -38566,28 +38628,28 @@
         <v>0.1157</v>
       </c>
       <c r="I4" t="n">
-        <v>-1.019510653753532</v>
+        <v>-1.01058147978891</v>
       </c>
       <c r="J4" t="n">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="K4" t="n">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="L4" t="n">
-        <v>0.1966353511443127</v>
+        <v>0.1937033509706747</v>
       </c>
       <c r="M4" t="n">
-        <v>12.12730169013631</v>
+        <v>12.14966631565883</v>
       </c>
       <c r="N4" t="n">
-        <v>252.8581904655859</v>
+        <v>253.5973573358402</v>
       </c>
       <c r="O4" t="n">
-        <v>15.90151535123574</v>
+        <v>15.92474041659205</v>
       </c>
       <c r="P4" t="n">
-        <v>370.1184996627327</v>
+        <v>370.0350832198393</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -38644,28 +38706,28 @@
         <v>0.1108</v>
       </c>
       <c r="I5" t="n">
-        <v>-1.149099252137224</v>
+        <v>-1.1419652473324</v>
       </c>
       <c r="J5" t="n">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="K5" t="n">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="L5" t="n">
-        <v>0.2655271848395946</v>
+        <v>0.2631345030016236</v>
       </c>
       <c r="M5" t="n">
-        <v>11.38854429089441</v>
+        <v>11.4011281776386</v>
       </c>
       <c r="N5" t="n">
-        <v>213.1376709090311</v>
+        <v>213.50662876335</v>
       </c>
       <c r="O5" t="n">
-        <v>14.59923528507679</v>
+        <v>14.61186602605396</v>
       </c>
       <c r="P5" t="n">
-        <v>376.6417901116245</v>
+        <v>376.574393220724</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -38722,28 +38784,28 @@
         <v>0.0893</v>
       </c>
       <c r="I6" t="n">
-        <v>-1.163317753214381</v>
+        <v>-1.158316309204361</v>
       </c>
       <c r="J6" t="n">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="K6" t="n">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="L6" t="n">
-        <v>0.2769570202622954</v>
+        <v>0.2756671683461882</v>
       </c>
       <c r="M6" t="n">
-        <v>11.23852368485605</v>
+        <v>11.24197917198425</v>
       </c>
       <c r="N6" t="n">
-        <v>205.3438927591201</v>
+        <v>205.2963992858458</v>
       </c>
       <c r="O6" t="n">
-        <v>14.3298252871108</v>
+        <v>14.32816803662791</v>
       </c>
       <c r="P6" t="n">
-        <v>382.8698584416471</v>
+        <v>382.8223262182418</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -38800,28 +38862,28 @@
         <v>0.1061</v>
       </c>
       <c r="I7" t="n">
-        <v>-1.212486216674318</v>
+        <v>-1.202068730824425</v>
       </c>
       <c r="J7" t="n">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="K7" t="n">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="L7" t="n">
-        <v>0.2973603313737944</v>
+        <v>0.2929393140094897</v>
       </c>
       <c r="M7" t="n">
-        <v>11.31249270864769</v>
+        <v>11.34820339581557</v>
       </c>
       <c r="N7" t="n">
-        <v>206.6816541169376</v>
+        <v>207.9081681851193</v>
       </c>
       <c r="O7" t="n">
-        <v>14.37642702888787</v>
+        <v>14.41902105502032</v>
       </c>
       <c r="P7" t="n">
-        <v>385.7311884969943</v>
+        <v>385.6341572005002</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -38878,28 +38940,28 @@
         <v>0.119</v>
       </c>
       <c r="I8" t="n">
-        <v>-1.273029950003119</v>
+        <v>-1.263850873002997</v>
       </c>
       <c r="J8" t="n">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="K8" t="n">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="L8" t="n">
-        <v>0.3232892274632442</v>
+        <v>0.3196053582996888</v>
       </c>
       <c r="M8" t="n">
-        <v>11.14522580801973</v>
+        <v>11.17121109554678</v>
       </c>
       <c r="N8" t="n">
-        <v>199.4719090996627</v>
+        <v>200.3369538819128</v>
       </c>
       <c r="O8" t="n">
-        <v>14.12345244972569</v>
+        <v>14.15404372898123</v>
       </c>
       <c r="P8" t="n">
-        <v>381.3372828522903</v>
+        <v>381.2508568531273</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -38956,28 +39018,28 @@
         <v>0.0901</v>
       </c>
       <c r="I9" t="n">
-        <v>-1.272669553680521</v>
+        <v>-1.262877707670601</v>
       </c>
       <c r="J9" t="n">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="K9" t="n">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="L9" t="n">
-        <v>0.3087873456980098</v>
+        <v>0.3048327612650352</v>
       </c>
       <c r="M9" t="n">
-        <v>11.7313536735372</v>
+        <v>11.76117262712184</v>
       </c>
       <c r="N9" t="n">
-        <v>216.1912177805157</v>
+        <v>217.2604109908419</v>
       </c>
       <c r="O9" t="n">
-        <v>14.70344237858998</v>
+        <v>14.73975613742785</v>
       </c>
       <c r="P9" t="n">
-        <v>378.4456044563165</v>
+        <v>378.353656376138</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -39034,28 +39096,28 @@
         <v>0.1118</v>
       </c>
       <c r="I10" t="n">
-        <v>-1.273996199944554</v>
+        <v>-1.259780817144338</v>
       </c>
       <c r="J10" t="n">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="K10" t="n">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="L10" t="n">
-        <v>0.2790928220255573</v>
+        <v>0.2725972215877704</v>
       </c>
       <c r="M10" t="n">
-        <v>12.53104676183067</v>
+        <v>12.58371058848174</v>
       </c>
       <c r="N10" t="n">
-        <v>251.7290198722159</v>
+        <v>254.7041235023732</v>
       </c>
       <c r="O10" t="n">
-        <v>15.8659704989079</v>
+        <v>15.95945248128435</v>
       </c>
       <c r="P10" t="n">
-        <v>374.5403316993171</v>
+        <v>374.4079261081132</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -39112,28 +39174,28 @@
         <v>0.1528</v>
       </c>
       <c r="I11" t="n">
-        <v>-1.176791669628807</v>
+        <v>-1.168437152656405</v>
       </c>
       <c r="J11" t="n">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="K11" t="n">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="L11" t="n">
-        <v>0.2394459464074571</v>
+        <v>0.2366582606272128</v>
       </c>
       <c r="M11" t="n">
-        <v>12.83013748916854</v>
+        <v>12.85033291224395</v>
       </c>
       <c r="N11" t="n">
-        <v>264.0446127388631</v>
+        <v>264.7703629829576</v>
       </c>
       <c r="O11" t="n">
-        <v>16.24944961341347</v>
+        <v>16.27176582252085</v>
       </c>
       <c r="P11" t="n">
-        <v>367.6359353315981</v>
+        <v>367.5579097541278</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -39190,28 +39252,28 @@
         <v>0.1281</v>
       </c>
       <c r="I12" t="n">
-        <v>-1.127651497606692</v>
+        <v>-1.120137680701443</v>
       </c>
       <c r="J12" t="n">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="K12" t="n">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="L12" t="n">
-        <v>0.2236534052180019</v>
+        <v>0.2213676188914746</v>
       </c>
       <c r="M12" t="n">
-        <v>12.7083007936651</v>
+        <v>12.72532152663633</v>
       </c>
       <c r="N12" t="n">
-        <v>266.4814639836129</v>
+        <v>266.9030254988932</v>
       </c>
       <c r="O12" t="n">
-        <v>16.32425998272549</v>
+        <v>16.33716699733749</v>
       </c>
       <c r="P12" t="n">
-        <v>363.9283811982082</v>
+        <v>363.8587817087133</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -39268,28 +39330,28 @@
         <v>0.2</v>
       </c>
       <c r="I13" t="n">
-        <v>-1.173693621132783</v>
+        <v>-1.168650139440619</v>
       </c>
       <c r="J13" t="n">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="K13" t="n">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="L13" t="n">
-        <v>0.2407817827843994</v>
+        <v>0.239622345792007</v>
       </c>
       <c r="M13" t="n">
-        <v>12.80046891361386</v>
+        <v>12.80325884358954</v>
       </c>
       <c r="N13" t="n">
-        <v>258.3522870600296</v>
+        <v>258.2174821802979</v>
       </c>
       <c r="O13" t="n">
-        <v>16.07334088047751</v>
+        <v>16.06914690269206</v>
       </c>
       <c r="P13" t="n">
-        <v>359.9206534794502</v>
+        <v>359.8728930292819</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -39346,28 +39408,28 @@
         <v>0.2</v>
       </c>
       <c r="I14" t="n">
-        <v>-1.269034298382019</v>
+        <v>-1.266475838560639</v>
       </c>
       <c r="J14" t="n">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="K14" t="n">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="L14" t="n">
-        <v>0.184614604578032</v>
+        <v>0.1845153740249729</v>
       </c>
       <c r="M14" t="n">
-        <v>14.17622435033286</v>
+        <v>14.16061647868153</v>
       </c>
       <c r="N14" t="n">
-        <v>420.7580783642093</v>
+        <v>420.0331701316248</v>
       </c>
       <c r="O14" t="n">
-        <v>20.51238841198677</v>
+        <v>20.49471078428834</v>
       </c>
       <c r="P14" t="n">
-        <v>358.9101138254373</v>
+        <v>358.8857502821328</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -39427,7 +39489,7 @@
         <v>-1.117057559412676</v>
       </c>
       <c r="J15" t="n">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="K15" t="n">
         <v>472</v>
@@ -39483,7 +39545,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P653"/>
+  <dimension ref="A1:P654"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -46418,7 +46480,7 @@
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>-43.45380934986919,169.7691095252577</t>
+          <t>-43.45380934986918,169.7691095252577</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
@@ -59683,7 +59745,7 @@
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>-43.45757834702345,169.76566972802198</t>
+          <t>-43.45757834702346,169.76566972802198</t>
         </is>
       </c>
       <c r="C295" t="inlineStr">
@@ -79512,7 +79574,7 @@
       </c>
       <c r="G585" t="inlineStr">
         <is>
-          <t>-43.45504450311336,169.7685148218249</t>
+          <t>-43.455044503113356,169.7685148218249</t>
         </is>
       </c>
       <c r="H585" t="inlineStr">
@@ -84721,6 +84783,84 @@
         </is>
       </c>
     </row>
+    <row r="654">
+      <c r="A654" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-12 22:25:42+00:00</t>
+        </is>
+      </c>
+      <c r="B654" t="inlineStr">
+        <is>
+          <t>-43.457577302881646,169.76566763267974</t>
+        </is>
+      </c>
+      <c r="C654" t="inlineStr">
+        <is>
+          <t>-43.45712648733799,169.76634958433266</t>
+        </is>
+      </c>
+      <c r="D654" t="inlineStr">
+        <is>
+          <t>-43.456574221037755,169.7668279579087</t>
+        </is>
+      </c>
+      <c r="E654" t="inlineStr">
+        <is>
+          <t>-43.456035495473635,169.7673335146221</t>
+        </is>
+      </c>
+      <c r="F654" t="inlineStr">
+        <is>
+          <t>-43.45549913361432,169.76782259986007</t>
+        </is>
+      </c>
+      <c r="G654" t="inlineStr">
+        <is>
+          <t>-43.45487632217435,169.76803731808306</t>
+        </is>
+      </c>
+      <c r="H654" t="inlineStr">
+        <is>
+          <t>-43.454317910852446,169.76845483965525</t>
+        </is>
+      </c>
+      <c r="I654" t="inlineStr">
+        <is>
+          <t>-43.45371133208673,169.76878411408526</t>
+        </is>
+      </c>
+      <c r="J654" t="inlineStr">
+        <is>
+          <t>-43.45306170533651,169.76897049447138</t>
+        </is>
+      </c>
+      <c r="K654" t="inlineStr">
+        <is>
+          <t>-43.45252689295017,169.7695428382491</t>
+        </is>
+      </c>
+      <c r="L654" t="inlineStr">
+        <is>
+          <t>-43.451942287046066,169.76994821984377</t>
+        </is>
+      </c>
+      <c r="M654" t="inlineStr">
+        <is>
+          <t>-43.45138663642485,169.77043919733686</t>
+        </is>
+      </c>
+      <c r="N654" t="inlineStr">
+        <is>
+          <t>-43.45081908612626,169.77089206778763</t>
+        </is>
+      </c>
+      <c r="O654" t="inlineStr"/>
+      <c r="P654" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0435/nzd0435.xlsx
+++ b/data/nzd0435/nzd0435.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P654"/>
+  <dimension ref="A1:P656"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -31613,8 +31613,102 @@
       <c r="N654" t="n">
         <v>333.7554838709677</v>
       </c>
-      <c r="O654" t="inlineStr"/>
+      <c r="O654" t="n">
+        <v>168.0409090909091</v>
+      </c>
       <c r="P654" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="655">
+      <c r="A655" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-13 22:19:36+00:00</t>
+        </is>
+      </c>
+      <c r="B655" t="n">
+        <v>379.9555555555555</v>
+      </c>
+      <c r="C655" t="n">
+        <v>365.6315789473685</v>
+      </c>
+      <c r="D655" t="n">
+        <v>367.9577777777778</v>
+      </c>
+      <c r="E655" t="n">
+        <v>371.7677777777778</v>
+      </c>
+      <c r="F655" t="n">
+        <v>375.1033333333333</v>
+      </c>
+      <c r="G655" t="n">
+        <v>382.8311764705882</v>
+      </c>
+      <c r="H655" t="n">
+        <v>371.5315789473684</v>
+      </c>
+      <c r="I655" t="n">
+        <v>377.2433333333333</v>
+      </c>
+      <c r="J655" t="n">
+        <v>382.6211764705882</v>
+      </c>
+      <c r="K655" t="n">
+        <v>364.5509523809524</v>
+      </c>
+      <c r="L655" t="inlineStr"/>
+      <c r="M655" t="n">
+        <v>352.4329032258065</v>
+      </c>
+      <c r="N655" t="n">
+        <v>316.0229032258065</v>
+      </c>
+      <c r="O655" t="n">
+        <v>147.6454545454545</v>
+      </c>
+      <c r="P655" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="656">
+      <c r="A656" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-28 22:25:52+00:00</t>
+        </is>
+      </c>
+      <c r="B656" t="inlineStr"/>
+      <c r="C656" t="inlineStr"/>
+      <c r="D656" t="inlineStr"/>
+      <c r="E656" t="inlineStr"/>
+      <c r="F656" t="inlineStr"/>
+      <c r="G656" t="inlineStr"/>
+      <c r="H656" t="inlineStr"/>
+      <c r="I656" t="n">
+        <v>383.8433333333333</v>
+      </c>
+      <c r="J656" t="n">
+        <v>363.3829411764706</v>
+      </c>
+      <c r="K656" t="n">
+        <v>358.4566666666667</v>
+      </c>
+      <c r="L656" t="n">
+        <v>347.4</v>
+      </c>
+      <c r="M656" t="n">
+        <v>341.8767741935484</v>
+      </c>
+      <c r="N656" t="n">
+        <v>318.2767741935484</v>
+      </c>
+      <c r="O656" t="n">
+        <v>139.5545454545455</v>
+      </c>
+      <c r="P656" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -31631,7 +31725,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B666"/>
+  <dimension ref="A1:B668"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -38299,6 +38393,26 @@
       </c>
       <c r="B666" t="n">
         <v>0.61</v>
+      </c>
+    </row>
+    <row r="667">
+      <c r="A667" t="inlineStr">
+        <is>
+          <t>2025-06-13 22:20:00+00:00</t>
+        </is>
+      </c>
+      <c r="B667" t="n">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="668">
+      <c r="A668" t="inlineStr">
+        <is>
+          <t>2025-06-28 22:30:00+00:00</t>
+        </is>
+      </c>
+      <c r="B668" t="n">
+        <v>-0.14</v>
       </c>
     </row>
   </sheetData>
@@ -38472,28 +38586,28 @@
         <v>0.0496</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.8406237236645926</v>
+        <v>-0.8311347478567938</v>
       </c>
       <c r="J2" t="n">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="K2" t="n">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="L2" t="n">
-        <v>0.09023336413914507</v>
+        <v>0.08842923853428131</v>
       </c>
       <c r="M2" t="n">
-        <v>16.24566954525609</v>
+        <v>16.26274316353438</v>
       </c>
       <c r="N2" t="n">
-        <v>435.0142815436726</v>
+        <v>435.5512275527057</v>
       </c>
       <c r="O2" t="n">
-        <v>20.8569959856081</v>
+        <v>20.86986410000567</v>
       </c>
       <c r="P2" t="n">
-        <v>375.0611986911916</v>
+        <v>374.9734507007867</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -38550,28 +38664,28 @@
         <v>0.122</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.9578781777207451</v>
+        <v>-0.9504149552198741</v>
       </c>
       <c r="J3" t="n">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="K3" t="n">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="L3" t="n">
-        <v>0.1801923250834713</v>
+        <v>0.1779213063175703</v>
       </c>
       <c r="M3" t="n">
-        <v>12.3779890370872</v>
+        <v>12.39552899865754</v>
       </c>
       <c r="N3" t="n">
-        <v>251.4399216508119</v>
+        <v>251.8282280501612</v>
       </c>
       <c r="O3" t="n">
-        <v>15.85685724381764</v>
+        <v>15.86909663623488</v>
       </c>
       <c r="P3" t="n">
-        <v>369.0387337251305</v>
+        <v>368.9690024887921</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -38628,28 +38742,28 @@
         <v>0.1157</v>
       </c>
       <c r="I4" t="n">
-        <v>-1.01058147978891</v>
+        <v>-1.002151812931774</v>
       </c>
       <c r="J4" t="n">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="K4" t="n">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="L4" t="n">
-        <v>0.1937033509706747</v>
+        <v>0.1910082798066255</v>
       </c>
       <c r="M4" t="n">
-        <v>12.14966631565883</v>
+        <v>12.16934110298763</v>
       </c>
       <c r="N4" t="n">
-        <v>253.5973573358402</v>
+        <v>254.2113161601923</v>
       </c>
       <c r="O4" t="n">
-        <v>15.92474041659205</v>
+        <v>15.94400564977924</v>
       </c>
       <c r="P4" t="n">
-        <v>370.0350832198393</v>
+        <v>369.9563211980288</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -38706,28 +38820,28 @@
         <v>0.1108</v>
       </c>
       <c r="I5" t="n">
-        <v>-1.1419652473324</v>
+        <v>-1.133361976323854</v>
       </c>
       <c r="J5" t="n">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="K5" t="n">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="L5" t="n">
-        <v>0.2631345030016236</v>
+        <v>0.2599099004005084</v>
       </c>
       <c r="M5" t="n">
-        <v>11.4011281776386</v>
+        <v>11.42172928459009</v>
       </c>
       <c r="N5" t="n">
-        <v>213.50662876335</v>
+        <v>214.2401303557931</v>
       </c>
       <c r="O5" t="n">
-        <v>14.61186602605396</v>
+        <v>14.6369440237979</v>
       </c>
       <c r="P5" t="n">
-        <v>376.574393220724</v>
+        <v>376.49310381417</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -38784,28 +38898,28 @@
         <v>0.0893</v>
       </c>
       <c r="I6" t="n">
-        <v>-1.158316309204361</v>
+        <v>-1.150238962528292</v>
       </c>
       <c r="J6" t="n">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="K6" t="n">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="L6" t="n">
-        <v>0.2756671683461882</v>
+        <v>0.2727264075503109</v>
       </c>
       <c r="M6" t="n">
-        <v>11.24197917198425</v>
+        <v>11.26170355339263</v>
       </c>
       <c r="N6" t="n">
-        <v>205.2963992858458</v>
+        <v>205.8496543986998</v>
       </c>
       <c r="O6" t="n">
-        <v>14.32816803662791</v>
+        <v>14.34746160122758</v>
       </c>
       <c r="P6" t="n">
-        <v>382.8223262182418</v>
+        <v>382.7455502077611</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -38862,28 +38976,28 @@
         <v>0.1061</v>
       </c>
       <c r="I7" t="n">
-        <v>-1.202068730824425</v>
+        <v>-1.191952721521928</v>
       </c>
       <c r="J7" t="n">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="K7" t="n">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="L7" t="n">
-        <v>0.2929393140094897</v>
+        <v>0.2887113463190487</v>
       </c>
       <c r="M7" t="n">
-        <v>11.34820339581557</v>
+        <v>11.38226008708367</v>
       </c>
       <c r="N7" t="n">
-        <v>207.9081681851193</v>
+        <v>209.0539451898655</v>
       </c>
       <c r="O7" t="n">
-        <v>14.41902105502032</v>
+        <v>14.45869790782923</v>
       </c>
       <c r="P7" t="n">
-        <v>385.6341572005002</v>
+        <v>385.5399197463008</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -38940,28 +39054,28 @@
         <v>0.119</v>
       </c>
       <c r="I8" t="n">
-        <v>-1.263850873002997</v>
+        <v>-1.255637979985885</v>
       </c>
       <c r="J8" t="n">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="K8" t="n">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="L8" t="n">
-        <v>0.3196053582996888</v>
+        <v>0.3165146844754434</v>
       </c>
       <c r="M8" t="n">
-        <v>11.17121109554678</v>
+        <v>11.19209367589312</v>
       </c>
       <c r="N8" t="n">
-        <v>200.3369538819128</v>
+        <v>200.9582801357275</v>
       </c>
       <c r="O8" t="n">
-        <v>14.15404372898123</v>
+        <v>14.17597545623325</v>
       </c>
       <c r="P8" t="n">
-        <v>381.2508568531273</v>
+        <v>381.1735164544656</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -39018,28 +39132,28 @@
         <v>0.0901</v>
       </c>
       <c r="I9" t="n">
-        <v>-1.262877707670601</v>
+        <v>-1.238405987207007</v>
       </c>
       <c r="J9" t="n">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="K9" t="n">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="L9" t="n">
-        <v>0.3048327612650352</v>
+        <v>0.2936255808066911</v>
       </c>
       <c r="M9" t="n">
-        <v>11.76117262712184</v>
+        <v>11.85216405193138</v>
       </c>
       <c r="N9" t="n">
-        <v>217.2604109908419</v>
+        <v>221.1720781188116</v>
       </c>
       <c r="O9" t="n">
-        <v>14.73975613742785</v>
+        <v>14.87185523459705</v>
       </c>
       <c r="P9" t="n">
-        <v>378.353656376138</v>
+        <v>378.1235324135789</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -39096,28 +39210,28 @@
         <v>0.1118</v>
       </c>
       <c r="I10" t="n">
-        <v>-1.259780817144338</v>
+        <v>-1.239636246417366</v>
       </c>
       <c r="J10" t="n">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="K10" t="n">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="L10" t="n">
-        <v>0.2725972215877704</v>
+        <v>0.264698901050431</v>
       </c>
       <c r="M10" t="n">
-        <v>12.58371058848174</v>
+        <v>12.64543517946877</v>
       </c>
       <c r="N10" t="n">
-        <v>254.7041235023732</v>
+        <v>257.591226397156</v>
       </c>
       <c r="O10" t="n">
-        <v>15.95945248128435</v>
+        <v>16.04964879357664</v>
       </c>
       <c r="P10" t="n">
-        <v>374.4079261081132</v>
+        <v>374.2201161536867</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -39174,28 +39288,28 @@
         <v>0.1528</v>
       </c>
       <c r="I11" t="n">
-        <v>-1.168437152656405</v>
+        <v>-1.153051458424221</v>
       </c>
       <c r="J11" t="n">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="K11" t="n">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="L11" t="n">
-        <v>0.2366582606272128</v>
+        <v>0.2317139176537957</v>
       </c>
       <c r="M11" t="n">
-        <v>12.85033291224395</v>
+        <v>12.88373814567054</v>
       </c>
       <c r="N11" t="n">
-        <v>264.7703629829576</v>
+        <v>265.9050528732285</v>
       </c>
       <c r="O11" t="n">
-        <v>16.27176582252085</v>
+        <v>16.30659537957659</v>
       </c>
       <c r="P11" t="n">
-        <v>367.5579097541278</v>
+        <v>367.414049036662</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -39252,28 +39366,28 @@
         <v>0.1281</v>
       </c>
       <c r="I12" t="n">
-        <v>-1.120137680701443</v>
+        <v>-1.11596725837768</v>
       </c>
       <c r="J12" t="n">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="K12" t="n">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="L12" t="n">
-        <v>0.2213676188914746</v>
+        <v>0.2205276946202107</v>
       </c>
       <c r="M12" t="n">
-        <v>12.72532152663633</v>
+        <v>12.72411372632586</v>
       </c>
       <c r="N12" t="n">
-        <v>266.9030254988932</v>
+        <v>266.680138453042</v>
       </c>
       <c r="O12" t="n">
-        <v>16.33716699733749</v>
+        <v>16.33034410087681</v>
       </c>
       <c r="P12" t="n">
-        <v>363.8587817087133</v>
+        <v>363.8200559598217</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -39330,28 +39444,28 @@
         <v>0.2</v>
       </c>
       <c r="I13" t="n">
-        <v>-1.168650139440619</v>
+        <v>-1.156280632746965</v>
       </c>
       <c r="J13" t="n">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="K13" t="n">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="L13" t="n">
-        <v>0.239622345792007</v>
+        <v>0.2362023892155991</v>
       </c>
       <c r="M13" t="n">
-        <v>12.80325884358954</v>
+        <v>12.82233198325368</v>
       </c>
       <c r="N13" t="n">
-        <v>258.2174821802979</v>
+        <v>258.4792961342444</v>
       </c>
       <c r="O13" t="n">
-        <v>16.06914690269206</v>
+        <v>16.07729131832363</v>
       </c>
       <c r="P13" t="n">
-        <v>359.8728930292819</v>
+        <v>359.755643092597</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -39408,28 +39522,28 @@
         <v>0.2</v>
       </c>
       <c r="I14" t="n">
-        <v>-1.266475838560639</v>
+        <v>-1.272843794927921</v>
       </c>
       <c r="J14" t="n">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="K14" t="n">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="L14" t="n">
-        <v>0.1845153740249729</v>
+        <v>0.1870010352739633</v>
       </c>
       <c r="M14" t="n">
-        <v>14.16061647868153</v>
+        <v>14.14621801303356</v>
       </c>
       <c r="N14" t="n">
-        <v>420.0331701316248</v>
+        <v>418.7179523868018</v>
       </c>
       <c r="O14" t="n">
-        <v>20.49471078428834</v>
+        <v>20.4625988668791</v>
       </c>
       <c r="P14" t="n">
-        <v>358.8857502821328</v>
+        <v>358.9464624874644</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -39486,28 +39600,28 @@
         <v>0.066</v>
       </c>
       <c r="I15" t="n">
-        <v>-1.117057559412676</v>
+        <v>-1.314478701226439</v>
       </c>
       <c r="J15" t="n">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="K15" t="n">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="L15" t="n">
-        <v>0.07138289823818889</v>
+        <v>0.08186482582025179</v>
       </c>
       <c r="M15" t="n">
-        <v>17.84752049753756</v>
+        <v>19.32073500061273</v>
       </c>
       <c r="N15" t="n">
-        <v>968.3223543054709</v>
+        <v>1162.145897261418</v>
       </c>
       <c r="O15" t="n">
-        <v>31.11787837088947</v>
+        <v>34.09026103246232</v>
       </c>
       <c r="P15" t="n">
-        <v>359.5174892364194</v>
+        <v>361.3825347000317</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -39545,7 +39659,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P654"/>
+  <dimension ref="A1:P656"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -84854,8 +84968,144 @@
           <t>-43.45081908612626,169.77089206778763</t>
         </is>
       </c>
-      <c r="O654" t="inlineStr"/>
+      <c r="O654" t="inlineStr">
+        <is>
+          <t>-43.45081412732794,169.77310571635303</t>
+        </is>
+      </c>
       <c r="P654" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="655">
+      <c r="A655" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-13 22:19:36+00:00</t>
+        </is>
+      </c>
+      <c r="B655" t="inlineStr">
+        <is>
+          <t>-43.45761392683947,169.76574112826827</t>
+        </is>
+      </c>
+      <c r="C655" t="inlineStr">
+        <is>
+          <t>-43.457139234363126,169.76637516473392</t>
+        </is>
+      </c>
+      <c r="D655" t="inlineStr">
+        <is>
+          <t>-43.4565799609093,169.7668394765298</t>
+        </is>
+      </c>
+      <c r="E655" t="inlineStr">
+        <is>
+          <t>-43.45601314566057,169.76728866362387</t>
+        </is>
+      </c>
+      <c r="F655" t="inlineStr">
+        <is>
+          <t>-43.455458770973294,169.76773314711585</t>
+        </is>
+      </c>
+      <c r="G655" t="inlineStr">
+        <is>
+          <t>-43.45487830094738,169.76804293621987</t>
+        </is>
+      </c>
+      <c r="H655" t="inlineStr">
+        <is>
+          <t>-43.4543260906533,169.76848199581926</t>
+        </is>
+      </c>
+      <c r="I655" t="inlineStr">
+        <is>
+          <t>-43.45369761594263,169.76873857791225</t>
+        </is>
+      </c>
+      <c r="J655" t="inlineStr">
+        <is>
+          <t>-43.45307028319848,169.76899897192664</t>
+        </is>
+      </c>
+      <c r="K655" t="inlineStr">
+        <is>
+          <t>-43.452522260299325,169.76952780934582</t>
+        </is>
+      </c>
+      <c r="L655" t="inlineStr"/>
+      <c r="M655" t="inlineStr">
+        <is>
+          <t>-43.45135535168815,169.77034128851062</t>
+        </is>
+      </c>
+      <c r="N655" t="inlineStr">
+        <is>
+          <t>-43.45088316428029,169.77109260867383</t>
+        </is>
+      </c>
+      <c r="O655" t="inlineStr">
+        <is>
+          <t>-43.45088782381222,169.77333637498833</t>
+        </is>
+      </c>
+      <c r="P655" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="656">
+      <c r="A656" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-28 22:25:52+00:00</t>
+        </is>
+      </c>
+      <c r="B656" t="inlineStr"/>
+      <c r="C656" t="inlineStr"/>
+      <c r="D656" t="inlineStr"/>
+      <c r="E656" t="inlineStr"/>
+      <c r="F656" t="inlineStr"/>
+      <c r="G656" t="inlineStr"/>
+      <c r="H656" t="inlineStr"/>
+      <c r="I656" t="inlineStr">
+        <is>
+          <t>-43.45367492754543,169.76866325496653</t>
+        </is>
+      </c>
+      <c r="J656" t="inlineStr">
+        <is>
+          <t>-43.45313641662583,169.7692185278844</t>
+        </is>
+      </c>
+      <c r="K656" t="inlineStr">
+        <is>
+          <t>-43.452543625568346,169.76959712104295</t>
+        </is>
+      </c>
+      <c r="L656" t="inlineStr">
+        <is>
+          <t>-43.45197732573695,169.77005860251666</t>
+        </is>
+      </c>
+      <c r="M656" t="inlineStr">
+        <is>
+          <t>-43.45139349765406,169.77046067031281</t>
+        </is>
+      </c>
+      <c r="N656" t="inlineStr">
+        <is>
+          <t>-43.45087501974905,169.77106711922454</t>
+        </is>
+      </c>
+      <c r="O656" t="inlineStr">
+        <is>
+          <t>-43.4509170591997,169.77342787779554</t>
+        </is>
+      </c>
+      <c r="P656" t="inlineStr">
         <is>
           <t>L9</t>
         </is>

--- a/data/nzd0435/nzd0435.xlsx
+++ b/data/nzd0435/nzd0435.xlsx
@@ -39144,10 +39144,10 @@
         <v>0.045</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0398</v>
+        <v>0.0399</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0496</v>
+        <v>0.0548</v>
       </c>
       <c r="I2" t="n">
         <v>-0.7702240716905429</v>
@@ -39219,13 +39219,13 @@
         <v>0.9230451976447271</v>
       </c>
       <c r="F3" t="n">
-        <v>0.095</v>
+        <v>0.105</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0799</v>
+        <v>0.0779</v>
       </c>
       <c r="H3" t="n">
-        <v>0.122</v>
+        <v>0.151</v>
       </c>
       <c r="I3" t="n">
         <v>-0.8971105995483893</v>
@@ -39297,13 +39297,13 @@
         <v>0.8460903952884985</v>
       </c>
       <c r="F4" t="n">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="G4" t="n">
-        <v>0.075</v>
+        <v>0.0759</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1157</v>
+        <v>0.151</v>
       </c>
       <c r="I4" t="n">
         <v>-0.9410042586979551</v>
@@ -39375,13 +39375,13 @@
         <v>0.7691355929332256</v>
       </c>
       <c r="F5" t="n">
-        <v>0.09</v>
+        <v>0.15</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0755</v>
+        <v>0.09569999999999999</v>
       </c>
       <c r="H5" t="n">
-        <v>0.1108</v>
+        <v>0.2</v>
       </c>
       <c r="I5" t="n">
         <v>-1.061095962919954</v>
@@ -39453,13 +39453,13 @@
         <v>0.6921807905785545</v>
       </c>
       <c r="F6" t="n">
-        <v>0.075</v>
+        <v>0.13</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0677</v>
+        <v>0.1065</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0893</v>
+        <v>0.1602</v>
       </c>
       <c r="I6" t="n">
         <v>-1.077312222162921</v>
@@ -39531,13 +39531,13 @@
         <v>0.6156353521114843</v>
       </c>
       <c r="F7" t="n">
-        <v>0.08500000000000001</v>
+        <v>0.125</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0726</v>
+        <v>0.1047</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1061</v>
+        <v>0.1617</v>
       </c>
       <c r="I7" t="n">
         <v>-1.128461320866942</v>
@@ -39609,13 +39609,13 @@
         <v>0.5386805497570635</v>
       </c>
       <c r="F8" t="n">
-        <v>0.095</v>
+        <v>0.105</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0804</v>
+        <v>0.0936</v>
       </c>
       <c r="H8" t="n">
-        <v>0.119</v>
+        <v>0.1262</v>
       </c>
       <c r="I8" t="n">
         <v>-1.203963140308597</v>
@@ -39687,13 +39687,13 @@
         <v>0.4617257474006353</v>
       </c>
       <c r="F9" t="n">
-        <v>0.075</v>
+        <v>0.12</v>
       </c>
       <c r="G9" t="n">
-        <v>0.06510000000000001</v>
+        <v>0.1041</v>
       </c>
       <c r="H9" t="n">
-        <v>0.0901</v>
+        <v>0.1447</v>
       </c>
       <c r="I9" t="n">
         <v>-1.211469884552355</v>
@@ -39765,13 +39765,13 @@
         <v>0.3847709450455453</v>
       </c>
       <c r="F10" t="n">
-        <v>0.08500000000000001</v>
+        <v>0.11</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0677</v>
+        <v>0.0844</v>
       </c>
       <c r="H10" t="n">
-        <v>0.1118</v>
+        <v>0.1537</v>
       </c>
       <c r="I10" t="n">
         <v>-1.218704095983596</v>
@@ -39843,13 +39843,13 @@
         <v>0.3078161426897861</v>
       </c>
       <c r="F11" t="n">
-        <v>0.105</v>
+        <v>0.165</v>
       </c>
       <c r="G11" t="n">
-        <v>0.08069999999999999</v>
+        <v>0.1142</v>
       </c>
       <c r="H11" t="n">
-        <v>0.1528</v>
+        <v>0.2</v>
       </c>
       <c r="I11" t="n">
         <v>-1.14160241076325</v>
@@ -39921,13 +39921,13 @@
         <v>0.2308644070650119</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1</v>
+        <v>0.115</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0799</v>
+        <v>0.097</v>
       </c>
       <c r="H12" t="n">
-        <v>0.1281</v>
+        <v>0.1489</v>
       </c>
       <c r="I12" t="n">
         <v>-1.121166797229705</v>
@@ -39999,13 +39999,13 @@
         <v>0.1539096047100079</v>
       </c>
       <c r="F13" t="n">
-        <v>0.155</v>
+        <v>0.14</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1103</v>
+        <v>0.114</v>
       </c>
       <c r="H13" t="n">
-        <v>0.2</v>
+        <v>0.1746</v>
       </c>
       <c r="I13" t="n">
         <v>-1.170497749265014</v>
@@ -40077,13 +40077,13 @@
         <v>0.07695480235476045</v>
       </c>
       <c r="F14" t="n">
-        <v>0.155</v>
+        <v>0.105</v>
       </c>
       <c r="G14" t="n">
-        <v>0.07729999999999999</v>
+        <v>0.0746</v>
       </c>
       <c r="H14" t="n">
-        <v>0.2</v>
+        <v>0.1823</v>
       </c>
       <c r="I14" t="n">
         <v>-1.298173904254031</v>
@@ -40155,13 +40155,13 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0.055</v>
+        <v>0.04</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0443</v>
+        <v>0.0334</v>
       </c>
       <c r="H15" t="n">
-        <v>0.066</v>
+        <v>0.0564</v>
       </c>
       <c r="I15" t="n">
         <v>-1.548431450179106</v>
